--- a/AWS_GCP.xlsx
+++ b/AWS_GCP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="24780" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="16560" windowHeight="20020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="157">
   <si>
     <t>AWS</t>
   </si>
@@ -1145,38 +1145,6 @@
   </si>
   <si>
     <t>Fast Random Access</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Google Datastore:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Capacity- Terabytes
-Access metaphor- Persistent Hashmap
-Read- Filter objects on property
-Write- put objects
-Update granularity- Attribute
-Usage- Structured data from AppEngine apps</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">A Datastore is like a persistent Hashmap:
-</t>
   </si>
   <si>
     <r>
@@ -1293,6 +1261,281 @@
 On  GCP console, click on your bucket name, and notice there are three new files present
 5. Publish Cloud Storage files to web
 https://storage.googleapis.com/&lt;BUCKET-NAME&gt;/earthquakes.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Datastore is like a persistent Hashmap:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To create and persist a Java Object to Datastore, just instantiate object and call ofy.save().entity()
+To read an object, ofy.load().type()
+To update, ofy().save().entity()
+to delete, ofy().delete().entity()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Google Datastore:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Capacity- Terabytes
+Access metaphor- Persistent Hashmap
+Read- Filter objects on property
+Write- Put object
+Update granularity- Attribute
+Usage- Structured data from AppEngine apps
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bigtable:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Capacity- Petabytes
+Access metaphor- Key-values, HBase API
+Read- Scan rows
+Write- Put row
+Update granularity- Row (write new row instead)
+Usage- No-ops, high throughput, scalable, flattened data, good for high-throughput scenarios</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bigtable is meant for high throughput:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Design row key with most common query in mind
+2. Design row key to minimize hotspots
+3. Tables should be tall and narrow. Store changes as new rows
+4. Use short column names. Organize into column families. Designed for sparse tables.
+5. Bigtable is no-ops. Auto-balanced, replicated, compacted, and so on.</t>
+    </r>
+  </si>
+  <si>
+    <t>Interactive, Iterative Development &amp; Demo</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb100-datalab</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datalab:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Write code in Python
+2. Run cell (Shift + Enter)
+3. Examine output
+4. Write commentary in markdown
+5. Share and collaborate
+Good - Run Docker locally, use own CPU, Notebooks on disk
+Better - Docker on Compute Engine, use GCP for processing, Notebooks on GCE disk, CloudShell ssh
+Best - Docker + Gateway VM Proxy, Use GCP for processing, Notebooks on local disk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run Datalab from Cloud Shell:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+cd training-data-analyst/datalab/cloudshell
+./create_vm.sh --&gt;
+NAME                 ZONE           MACHINE_TYPE   PREEMPTIBLE  INTERNAL_IP  EXTERNAL_IP    STATUS
+datalabvm-chiangjon  us-central1-a  n1-standard-1               10.128.0.2   35.184.226.95  RUNNING
+Go to Compute Engine tab, you should be able to see your datalabvm-&lt;username&gt; which you can ssh
+./start_tunnel.sh --&gt; Click web preview button and select port 8081 to view it to open up ipython</t>
+    </r>
+  </si>
+  <si>
+    <t>Warehouse and Interactively Query Petabytes</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb100-bigquery-dataset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create ML Dataset with BigQuery:
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BigQuery sample SQL:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://bigquery.cloud.google.com</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SELECT language, SUM(views) as views
+FROM [bigquery-samples:wikipedia_benchmark.Wiki10B]
+WHERE regexp_match(title, "G.*o.*o.*g")
+GROUP by language
+ORDER by views DESC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BigQuery offers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Interactive analysis of petabyte scale databases
+2. Familiar SQL 2011 query language
+3. User Defined Functions in JavaScript
+4. Serverless ETL: access CSV, JSON files on Cloud Storage
+5. Support with Datalab
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Loading data into BigQuery:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Batch- From the web Console and files on disk, Cloud Storage or Cloud Datastore
+2. Stream- data with Cloud Dataflow, from Cloud Logging or with POST calls
+3. Set up federated data source (serverless ETL) for CSV, JSON, AVRO on GCS or Google Sheets</t>
     </r>
   </si>
 </sst>
@@ -1423,7 +1666,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1462,6 +1705,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1862,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2328,7 +2577,7 @@
     <row r="68" spans="1:3" ht="270">
       <c r="A68" s="9"/>
       <c r="C68" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20">
@@ -2385,7 +2634,7 @@
     <row r="76" spans="1:3" ht="401" customHeight="1">
       <c r="A76" s="9"/>
       <c r="C76" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="75">
@@ -2423,40 +2672,69 @@
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3" ht="105">
+    <row r="82" spans="1:3" ht="225">
       <c r="A82" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="30">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="75">
       <c r="A83" s="9"/>
       <c r="C83" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="90">
       <c r="A84" s="9"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="9"/>
+      <c r="C84" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="150">
+      <c r="A85" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="9"/>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="A86" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="105">
       <c r="A87" s="9"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="9"/>
+      <c r="C87" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="285">
+      <c r="A88" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="9"/>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="A89" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30">
       <c r="A90" s="9"/>
+      <c r="C90" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="9"/>
@@ -2505,6 +2783,21 @@
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="9"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="9"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="9"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="9"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="9"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2546,6 +2839,8 @@
     <hyperlink ref="C31" r:id="rId36"/>
     <hyperlink ref="C33" r:id="rId37"/>
     <hyperlink ref="C41" r:id="rId38"/>
+    <hyperlink ref="C86" r:id="rId39"/>
+    <hyperlink ref="C89" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/AWS_GCP.xlsx
+++ b/AWS_GCP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="16560" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="188">
   <si>
     <t>AWS</t>
   </si>
@@ -91,9 +91,6 @@
     <t>General Cloud</t>
   </si>
   <si>
-    <t>Data Lake</t>
-  </si>
-  <si>
     <t>https://aws.amazon.com/big-data</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>https://s3.amazonaws.com/big-data-ipc/AWS_Data-Lake_eBook.pdf</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=LozznXvpOpg</t>
-  </si>
-  <si>
     <t>https://aws.amazon.com/elasticsearch-service</t>
   </si>
   <si>
@@ -118,21 +112,12 @@
     <t>https://aws.amazon.com/machine-learning</t>
   </si>
   <si>
-    <t>https://cloud.google.com/products/macine-learning</t>
-  </si>
-  <si>
     <t>https://cloud.google.com/natural-language</t>
   </si>
   <si>
     <t>https://cloud.google.com/solutions/recommendations-using-machine-learning-on-compute-engine</t>
   </si>
   <si>
-    <t>Data Warehouse</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/redshift/latest/dg/tutorial-tuning-tables-create-test-data.html</t>
-  </si>
-  <si>
     <t>https://cloud.google.com/bigquery</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>https://cloud.google.com/docs/tutorials#financial_services</t>
   </si>
   <si>
-    <t>Cloud DataFlow - Real time batch and stream data processing</t>
-  </si>
-  <si>
     <t>BigQuery - Fully managed large scale data warehouse</t>
   </si>
   <si>
@@ -197,32 +179,6 @@
   </si>
   <si>
     <t>Module 2 - Foundations of GCP Compute and Storage</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Network:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Global Data Centers
--Global Private Network
--Edge locations in 30+ countries
--Software-defined networking</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1379,36 +1335,6 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Datalab:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Write code in Python
-2. Run cell (Shift + Enter)
-3. Examine output
-4. Write commentary in markdown
-5. Share and collaborate
-Good - Run Docker locally, use own CPU, Notebooks on disk
-Better - Docker on Compute Engine, use GCP for processing, Notebooks on GCE disk, CloudShell ssh
-Best - Docker + Gateway VM Proxy, Use GCP for processing, Notebooks on local disk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Run Datalab from Cloud Shell:</t>
     </r>
     <r>
@@ -1436,19 +1362,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Create ML Dataset with BigQuery:
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">BigQuery sample SQL:
 </t>
     </r>
@@ -1537,6 +1450,431 @@
 2. Stream- data with Cloud Dataflow, from Cloud Logging or with POST calls
 3. Set up federated data source (serverless ETL) for CSV, JSON, AVRO on GCS or Google Sheets</t>
     </r>
+  </si>
+  <si>
+    <t>Machine Learning with TensorFlow</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb100-tensorflow</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb100-translate-api</t>
+  </si>
+  <si>
+    <t>https://github.com/GoogleCloudPlatform/training-data-analyst/blob/master/CPB100/lab4c/mlapis.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/GoogleCloudPlatform/training-data-analyst/blob/master/CPB100/lab4a/demandforecast.ipynb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create ML Dataset with BigQuery:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Run a Ipython Google Cloud DataLab instance and create a new notebook
+Follow and copy paste steps in Github link above to notebook to generate training data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TensorFlow:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Machine Learning library that underlies many of Google's products
+Open-sourced 2015
+C++ engine &amp; API
+Python API that talks to C++
+Deep-learning neural networks with auto-differentiation of objective functions
+1. Collect predictors and target data
+2. Create model
+3. Train the model based on input data
+4. Use the model on new data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What is a neural network?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+http://playground.tensorflow.org</t>
+    </r>
+  </si>
+  <si>
+    <t>Fully building Machine Learning Models</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ML options on Google Cloud:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. TensorFlow: Use/extend, OSS SDK, ML researcher
+2. Cloud ML Engine: Scale, No-ops Infra, Building custom models as Data Scientist. Deep networks, TensorFlow Processing Units (TPUs), Distributed.
+3. ML APIs: Use pre-built models from Traslate API, Vision API, Speech API, Language API</t>
+    </r>
+  </si>
+  <si>
+    <t>Message-oriented Architectures</t>
+  </si>
+  <si>
+    <t>Serverless Data Pipelines</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/products/machine-learning</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/datastore</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/bigtable</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/datalab</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/ml</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/speech</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/vision</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/translate</t>
+  </si>
+  <si>
+    <t>Data Lake / Warehouse</t>
+  </si>
+  <si>
+    <t>Module 5 - Data Processing Architectures: Scalable Ingest, Transform, Load</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Get API Key:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+From GCP console menu select API Manager --&gt; Enable API
+In search box type vision and select Google Cloud Vision API
+Click Enable --&gt; Go to Credentials --&gt; Yes, I'm using one or both --&gt; What credentials do I need? --&gt; Done
+Create a new notebook in Datalab, then follow the steps on Github link above
+Invoke Google ML APIs - Vision, Natural Language, Speech, Translation
+Ideas- Scan Chinese stock tweets images, translate to English, run Natural Language Sentiment Analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collect Predictors and Target Data:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Gather all training data, Discard info that specifically identifies a row, Predictor columns need to be numeric (not categorical data or "codes")
+2. Create neural network model
+3. Train the model
+4. Use the model to predict</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datalab:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Write code in Python
+2. Run cell (Shift + Enter)
+3. Examine output
+4. Write commentary in markdown
+5. Share and collaborate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Options:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Good - Run Docker locally, use own CPU, Notebooks on disk
+Better - Docker on Compute Engine, use GCP for processing, Notebooks on GCE disk, CloudShell ssh
+Best - Docker + Gateway VM Proxy, Use GCP for processing, Notebooks on local disk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Asynchronous processing is a way of absorbing unpredictable usage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Availability - Buffer new requests during outages
+Change Mgmt - New data sources and sinks can interoperate
+Throughput - Balance load across multiple workers
+Unification - Spans organizational boundaries
+Latency - Accept requests closer to the network edge
+Consistency - Common security policies
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cloud Pub/Sub offers reliable, real-time messaging:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Decoupled sources --&gt; Pub/Sub Topic Queue --&gt; Reliable delivery to multiple Consumers (Push/Pull) --&gt; Decoupled workers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dataflow offers NoOps Data Pipelines:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Based off open-source Apache Beam API
+Can be executed on Flink, Spark, etc.
+Parallel task, autoscaled by execution framework
+Input -&gt; Read -&gt; Filter 1 -&gt; Group 1 -&gt; Filter 2 -&gt; Transform 1 -&gt; Write -&gt; Output
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Same code does real-time and batch:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cloud Pub/Sub (Real-time) OR Cloud Storage (Batch) --&gt; Cloud Dataflow --&gt; BigQuery, Cloud Pub/Sub, Cloud Storage
+Dataflow does ingest, transform, and load</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Ingestion / Pipeline</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/dataflow</t>
+  </si>
+  <si>
+    <t>Cloud DataFlow - Fully-managed data processing service, supporting both batch and real time stream data</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/pubsub</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/solutions/reliable-task-scheduling-compute-engine</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/solutions/real-time/kubernetes-pubsub-bigquery</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/solutions/processing-logs-at-scale-using-dataflow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Network:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Global Data Centers
+2. Global Private Network
+3. Edge locations in 30+ countries
+4. Software-defined networking</t>
+    </r>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>https://cloudplatform.googleblog.com</t>
+  </si>
+  <si>
+    <t>https://medium.com/google-cloud</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/blog/big-data/</t>
+  </si>
+  <si>
+    <t>Leveraging Unstructured Data with Cloud Dataproc on Google Cloud Platform</t>
   </si>
 </sst>
 </file>
@@ -2111,17 +2449,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25">
@@ -2173,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2200,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2208,7 +2546,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2216,7 +2554,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2227,12 +2565,12 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20">
@@ -2247,48 +2585,48 @@
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2296,17 +2634,17 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2314,490 +2652,606 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="B37" s="1" t="s">
-        <v>28</v>
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:3">
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:3">
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:3">
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="C43" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
       <c r="C45" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="25">
+      <c r="A59" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="50" spans="1:3" ht="25">
-      <c r="A50" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" ht="20">
-      <c r="A51" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="75">
-      <c r="A52" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="135" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="C53" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="75">
-      <c r="A54" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="75">
-      <c r="A55" s="7"/>
-      <c r="C55" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="225">
-      <c r="A56" s="7"/>
-      <c r="C56" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20">
-      <c r="A58" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" ht="105">
-      <c r="A59" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="60">
-      <c r="A60" s="9"/>
-      <c r="C60" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" ht="20">
+      <c r="A60" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" ht="75">
       <c r="A61" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="75">
+        <v>40</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="135" customHeight="1">
       <c r="A62" s="9"/>
       <c r="C62" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="90">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="75">
       <c r="A63" s="9" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="60">
-      <c r="A64" s="9"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="75">
+      <c r="A64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="90">
-      <c r="A65" s="9"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="225">
+      <c r="A65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="60">
-      <c r="A66" s="9"/>
-      <c r="C66" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="270">
-      <c r="A68" s="9"/>
-      <c r="C68" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20">
-      <c r="A69" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" ht="60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="20">
+      <c r="A67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" ht="105">
+      <c r="A68" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="60">
+      <c r="A69" s="9"/>
+      <c r="C69" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="60">
+        <v>63</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="75">
       <c r="A71" s="9"/>
       <c r="C71" s="7" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="90">
-      <c r="A72" s="9"/>
+      <c r="A72" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C72" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="120">
-      <c r="A74" s="9" t="s">
-        <v>99</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="60">
+      <c r="A73" s="9"/>
+      <c r="C73" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="90">
+      <c r="A74" s="9"/>
       <c r="C74" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="401" customHeight="1">
-      <c r="A76" s="9"/>
-      <c r="C76" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="75">
-      <c r="A77" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="105">
-      <c r="A78" s="9"/>
-      <c r="C78" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="60">
+      <c r="A75" s="9"/>
+      <c r="C75" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="270">
+      <c r="A77" s="9"/>
+      <c r="C77" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="20">
+      <c r="A78" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" ht="60">
       <c r="A79" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="400" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="60">
       <c r="A80" s="9"/>
       <c r="C80" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="20">
-      <c r="A81" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="1:3" ht="225">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="90">
+      <c r="A81" s="9"/>
+      <c r="C81" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="75">
-      <c r="A83" s="9"/>
-      <c r="C83" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="90">
-      <c r="A84" s="9"/>
-      <c r="C84" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="150">
-      <c r="A85" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="120">
+      <c r="A83" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="401" customHeight="1">
+      <c r="A85" s="9"/>
+      <c r="C85" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="75">
       <c r="A86" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>150</v>
+        <v>96</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="105">
       <c r="A87" s="9"/>
       <c r="C87" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="400" customHeight="1">
+      <c r="A89" s="9"/>
+      <c r="C89" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="20">
+      <c r="A90" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" ht="225">
+      <c r="A91" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="75">
+      <c r="A92" s="9"/>
+      <c r="C92" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="90">
+      <c r="A93" s="9"/>
+      <c r="C93" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="150">
+      <c r="A94" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="105">
+      <c r="A96" s="9"/>
+      <c r="C96" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="285">
+      <c r="A97" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="9"/>
+      <c r="C99" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="9"/>
+      <c r="C100" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="285">
-      <c r="A88" s="9" t="s">
+    <row r="101" spans="1:3" ht="45">
+      <c r="A101" s="9"/>
+      <c r="C101" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="17" t="s">
+    </row>
+    <row r="102" spans="1:3" ht="195">
+      <c r="A102" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="90">
+      <c r="A103" s="9"/>
+      <c r="C103" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="9"/>
+      <c r="C105" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="105">
+      <c r="A106" s="9"/>
+      <c r="C106" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="75">
+      <c r="A107" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="30">
-      <c r="A90" s="9"/>
-      <c r="C90" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="9"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="9"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="9"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="9"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="9"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="9"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="9"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="9"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="9"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="9"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="9"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="9"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="9"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="9"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="9"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="9"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="9"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="9"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="9"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="9"/>
-    </row>
-    <row r="111" spans="1:1">
+    <row r="108" spans="1:3" ht="20">
+      <c r="A108" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" ht="165">
+      <c r="A109" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="150">
+      <c r="A110" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="9"/>
+    </row>
+    <row r="112" spans="1:3" ht="25">
+      <c r="A112" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="9"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="9"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="9"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="9"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="9"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="9"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2805,42 +3259,57 @@
     <hyperlink ref="B35" r:id="rId2"/>
     <hyperlink ref="B34" r:id="rId3"/>
     <hyperlink ref="B36" r:id="rId4"/>
-    <hyperlink ref="B37" r:id="rId5"/>
-    <hyperlink ref="B32" r:id="rId6"/>
-    <hyperlink ref="B38" r:id="rId7"/>
-    <hyperlink ref="C38" r:id="rId8"/>
-    <hyperlink ref="C39" r:id="rId9"/>
-    <hyperlink ref="C40" r:id="rId10"/>
-    <hyperlink ref="B42" r:id="rId11"/>
-    <hyperlink ref="C42" r:id="rId12"/>
-    <hyperlink ref="C45" r:id="rId13" location="financial_services"/>
-    <hyperlink ref="C17" r:id="rId14" location="ten-min-tutorial-section" display="https://cloud.google.com/getting-started/?utm_source=free-trial-Y&amp;utm_medium=email&amp;utm_campaign=ft-welcome&amp;utm_content=W1#ten-min-tutorial-section"/>
-    <hyperlink ref="C47" r:id="rId15"/>
-    <hyperlink ref="C46" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C23" r:id="rId19"/>
-    <hyperlink ref="C26" r:id="rId20"/>
-    <hyperlink ref="C21" r:id="rId21"/>
-    <hyperlink ref="C27" r:id="rId22"/>
-    <hyperlink ref="C61" r:id="rId23"/>
-    <hyperlink ref="C57" r:id="rId24"/>
-    <hyperlink ref="C29" r:id="rId25"/>
-    <hyperlink ref="C67" r:id="rId26"/>
-    <hyperlink ref="C22" r:id="rId27"/>
-    <hyperlink ref="C25" r:id="rId28"/>
-    <hyperlink ref="C28" r:id="rId29"/>
-    <hyperlink ref="C19" r:id="rId30"/>
-    <hyperlink ref="C44" r:id="rId31"/>
-    <hyperlink ref="C32" r:id="rId32"/>
-    <hyperlink ref="C73" r:id="rId33"/>
-    <hyperlink ref="C75" r:id="rId34"/>
-    <hyperlink ref="C79" r:id="rId35"/>
-    <hyperlink ref="C31" r:id="rId36"/>
-    <hyperlink ref="C33" r:id="rId37"/>
-    <hyperlink ref="C41" r:id="rId38"/>
-    <hyperlink ref="C86" r:id="rId39"/>
-    <hyperlink ref="C89" r:id="rId40"/>
+    <hyperlink ref="B32" r:id="rId5"/>
+    <hyperlink ref="C34" r:id="rId6"/>
+    <hyperlink ref="C50" r:id="rId7"/>
+    <hyperlink ref="C53" r:id="rId8" location="financial_services"/>
+    <hyperlink ref="C17" r:id="rId9" location="ten-min-tutorial-section" display="https://cloud.google.com/getting-started/?utm_source=free-trial-Y&amp;utm_medium=email&amp;utm_campaign=ft-welcome&amp;utm_content=W1#ten-min-tutorial-section"/>
+    <hyperlink ref="C55" r:id="rId10"/>
+    <hyperlink ref="C54" r:id="rId11"/>
+    <hyperlink ref="C18" r:id="rId12"/>
+    <hyperlink ref="C20" r:id="rId13"/>
+    <hyperlink ref="C23" r:id="rId14"/>
+    <hyperlink ref="C26" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C27" r:id="rId17"/>
+    <hyperlink ref="C70" r:id="rId18"/>
+    <hyperlink ref="C66" r:id="rId19"/>
+    <hyperlink ref="C29" r:id="rId20"/>
+    <hyperlink ref="C76" r:id="rId21"/>
+    <hyperlink ref="C22" r:id="rId22"/>
+    <hyperlink ref="C25" r:id="rId23"/>
+    <hyperlink ref="C28" r:id="rId24"/>
+    <hyperlink ref="C19" r:id="rId25"/>
+    <hyperlink ref="C52" r:id="rId26"/>
+    <hyperlink ref="C32" r:id="rId27"/>
+    <hyperlink ref="C82" r:id="rId28"/>
+    <hyperlink ref="C84" r:id="rId29"/>
+    <hyperlink ref="C88" r:id="rId30"/>
+    <hyperlink ref="C31" r:id="rId31"/>
+    <hyperlink ref="C33" r:id="rId32"/>
+    <hyperlink ref="C51" r:id="rId33"/>
+    <hyperlink ref="C95" r:id="rId34"/>
+    <hyperlink ref="C98" r:id="rId35"/>
+    <hyperlink ref="C99" r:id="rId36"/>
+    <hyperlink ref="C104" r:id="rId37"/>
+    <hyperlink ref="C105" r:id="rId38"/>
+    <hyperlink ref="C49" r:id="rId39"/>
+    <hyperlink ref="C35" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
+    <hyperlink ref="C44" r:id="rId42"/>
+    <hyperlink ref="C45" r:id="rId43"/>
+    <hyperlink ref="C48" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
+    <hyperlink ref="C36" r:id="rId47"/>
+    <hyperlink ref="C37" r:id="rId48"/>
+    <hyperlink ref="B42" r:id="rId49"/>
+    <hyperlink ref="C38" r:id="rId50"/>
+    <hyperlink ref="C39" r:id="rId51"/>
+    <hyperlink ref="C40" r:id="rId52"/>
+    <hyperlink ref="C41" r:id="rId53"/>
+    <hyperlink ref="C56" r:id="rId54"/>
+    <hyperlink ref="C58" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2864,192 +3333,192 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="15" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/AWS_GCP.xlsx
+++ b/AWS_GCP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="5680" yWindow="0" windowWidth="19880" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="209">
   <si>
     <t>AWS</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>https://aws.amazon.com/big-data</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/answers/big-data/data-lake-solution</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/big-data/data-lake-on-aws</t>
   </si>
   <si>
     <t>https://s3.amazonaws.com/big-data-ipc/AWS_Data-Lake_eBook.pdf</t>
@@ -936,60 +930,6 @@
   </si>
   <si>
     <t>https://codelabs.developers.google.com/codelabs/cpb100-dataproc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dataproc:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Launch Dataproc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-In Cloud SQL note the region of your Cloud SQL instance, e.g. us-central1
-Select Dataproc, create Clusters
-Change zone to same region as Cloud SQL to minimuze network latency between Cluster and DB
-Change machine type of both Master and Worker nodes to n1-standard-2
-Click Create to create Cluster, noting the name, zone, and # of workers in cluster
-In Cloud Shell, navigate to lab folder and authorize all Dataproc nodes to be able to access Cloud SQL instance:
-cd ~/training-data-analyst/CPB100/lab3b
-bash authorize_dataproc.sh   cluster-1   &lt;Zone&gt;    2 
-2. Run ML Model
-Edit model training file using nano command --&gt; nano sparkml/train_and_apply.py
-Change fields marked as CHANGE to match your Cloud SQL setup, and save using CTRL+X
-Copy this file to Cloud Storage Bucket using --&gt; gsutil cp sparkml/tr*.py gs://&lt;bucket-name&gt;/
-On left hand Console menu click Dataproc -&gt; Jobs
-Click Submit Job and change job to PySpark, and specify location of Python file you uploaded to your bucket --&gt; gs://&lt;bucket-name&gt;/train_and_apply.py
-Submit job and wait for status to change from Running to Succeeded
-3. Explore Inserted Rows
-In Cloud Shell, authorize your CloudShell VM to access the Cloud SQL instance. This will also deauthorize the Dataproc cluster --&gt; bash ../lab3a/authorize_cloudshell.sh
-Connect to Cloud SQL Instance --&gt; mysql --host=&lt;MySQLIP&gt; --user=root --password
-At the first mysql prompt, type this to set database --&gt; use recommendation_spark;
-Find recommendation for some user:
-select r.userid, r.accoid, r.prediction, a.title, a.location, a.price, a.rooms, a.rating, a.type from Recommendation as r, Accommodation as a where r.accoid = a.id and r.userid = 10;</t>
-    </r>
   </si>
   <si>
     <t>mysql&gt; select r.userid, r.accoid, r.prediction, a.title, a.location, a.price, a.rooms, a.rating, a.type from Recommendation as r, Accommodation as a where r.accoid = a.id and r.userid = 10;</t>
@@ -1836,6 +1776,21 @@
     <t>https://cloud.google.com/solutions/processing-logs-at-scale-using-dataflow</t>
   </si>
   <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>https://cloudplatform.googleblog.com</t>
+  </si>
+  <si>
+    <t>https://medium.com/google-cloud</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/blog/big-data/</t>
+  </si>
+  <si>
+    <t>Leveraging Unstructured Data with Cloud Dataproc on Google Cloud Platform</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -1857,24 +1812,345 @@
       <t xml:space="preserve">
 1. Global Data Centers
 2. Global Private Network
-3. Edge locations in 30+ countries
-4. Software-defined networking</t>
-    </r>
-  </si>
-  <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>https://cloudplatform.googleblog.com</t>
-  </si>
-  <si>
-    <t>https://medium.com/google-cloud</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/blog/big-data/</t>
-  </si>
-  <si>
-    <t>Leveraging Unstructured Data with Cloud Dataproc on Google Cloud Platform</t>
+3. 77+ Edge locations in 30+ countries
+4. Software-defined networking
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regions &amp; Zones:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Regions are specific geographical location and collections of zones (us-central-1)
+Zones are isolated locations within a region (us-central-1a, b, c, f)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pricing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Sub hour billing
+-Sustained-used discounts, users rewarded with running VMs over 25% of any calendar month
+-Compute engine custom machine type</t>
+    </r>
+  </si>
+  <si>
+    <t>Why Unstructured Data?</t>
+  </si>
+  <si>
+    <t>Four Sources of Data</t>
+  </si>
+  <si>
+    <t>1. Data you analyze today
+2. Data you collect but don't analyze
+3. Data you could collect but don't
+4. Data from partners and 3rd parties</t>
+  </si>
+  <si>
+    <t>Unstructured Data</t>
+  </si>
+  <si>
+    <t>Google Maps Street View - Vision API
+Finding new value in image data - Sign, Street #, Street name, Business name, Traffic light, Traffic sign</t>
+  </si>
+  <si>
+    <t>Big Data Applications</t>
+  </si>
+  <si>
+    <t>Easy counting problems, Harder counting problems 
+Which programmers checking in low-quality code?, Lack of parking space?</t>
+  </si>
+  <si>
+    <t>Build on top of Google</t>
+  </si>
+  <si>
+    <t>Images, Audio, Video, Free-form text --&gt; ML API --&gt; Places, Labels, People, Events --&gt; Cloud ML Engine</t>
+  </si>
+  <si>
+    <t>Why Cloud Dataproc?</t>
+  </si>
+  <si>
+    <t>Typical Spark and Hadoop Deployments</t>
+  </si>
+  <si>
+    <t>Cluster Provisioning Considerations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Many steps to confiugre and retweak cluster size:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Obtain Servers
+2. Configure Servers
+3. Install OSS
+4. Configure OSS
+5. Optimize OSS
+6. Debug OSS
+7. Process Data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lots of time spent on admin / operations:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monitoring
+Performance tuning
+Utilization improvements - Minimize idle time and wasted compute 
+Deployment &amp; Config
+Reliability
+Handling growing scale - Plan for capacity
+Resource provisioning
+Insights &amp; Analytics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dataproc:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Launch Dataproc
+In Cloud SQL note the region of your Cloud SQL instance, e.g. us-central1
+-Select Dataproc, create Clusters, give cluster meaningful name
+-Change zone to same region as Cloud SQL to minimuze network latency between Cluster and DB
+-Change machine type of both Master and Worker nodes to n1-standard-2
+-Click Create to create Cluster, noting the name, zone, and # of workers in cluster
+-In Cloud Shell, navigate to lab folder and authorize all Dataproc nodes to be able to access Cloud SQL instance:
+cd ~/training-data-analyst/CPB100/lab3b
+bash authorize_dataproc.sh   cluster-1   &lt;Zone&gt;    2 
+2. Run ML Model
+Edit model training file using nano command --&gt; nano sparkml/train_and_apply.py
+Change fields marked as CHANGE to match your Cloud SQL setup, and save using CTRL+X
+Copy this file to Cloud Storage Bucket using --&gt; gsutil cp sparkml/tr*.py gs://&lt;bucket-name&gt;/
+On left hand Console menu click Dataproc -&gt; Jobs
+Click Submit Job and change job to PySpark, and specify location of Python file you uploaded to your bucket --&gt; gs://&lt;bucket-name&gt;/train_and_apply.py
+Submit job and wait for status to change from Running to Succeeded
+3. Explore Inserted Rows
+In Cloud Shell, authorize your CloudShell VM to access the Cloud SQL instance. This will also deauthorize the Dataproc cluster --&gt; bash ../lab3a/authorize_cloudshell.sh
+Connect to Cloud SQL Instance --&gt; mysql --host=&lt;MySQLIP&gt; --user=root --password
+At the first mysql prompt, type this to set database --&gt; use recommendation_spark;
+Find recommendation for some user:
+select r.userid, r.accoid, r.prediction, a.title, a.location, a.price, a.rooms, a.rating, a.type from Recommendation as r, Accommodation as a where r.accoid = a.id and r.userid = 10;</t>
+    </r>
+  </si>
+  <si>
+    <t>Zones and Regions</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/compute/docs/regions-zones/regions-zones</t>
+  </si>
+  <si>
+    <t>Three Cluster Configurations Possible</t>
+  </si>
+  <si>
+    <t>Preemptable nodes are runnable for 24 hrs, ideal for Dataproc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Master node manages the cluster, choose between:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Single Node (For experimentation)
+2. Standard (1 master, 2 or more workers)
+3. High Availability (3 masters, 2 or more workers)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Don't use HDFS to store input/output data, use Google Cloud Storage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-That way the Cluster is stateless, don't need to keep it running
+-Actual storage should be divided by 3 since Hadoop nodes replicates data 3 times for resiliency
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preemptible workers can be a good deal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Go to Cloud Dataproc --&gt; Click on cluster name --&gt; Configuration --&gt; Edit --&gt; Preemptible worker nodes
+Imagine your job needs 10 machines for 130 mins
+Your cluster has 10 standard workers and you manage to get 10 preemptible machines
+1. Your job will now finish in 65 mins. Calculate the min time needed with standard cluster size, then scale
+2. It will cost 40% less overall
+3. Runs for at most 24 hours, and you could get preempted or kicked off if someone needs it</t>
+    </r>
+  </si>
+  <si>
+    <t>Create a Dataproc cluster from the Web console
+SSH into the cluster and run PySpark jobs
+Add a firewall rule that allows access to your cluster from the browser
+Create, manage and delete Dataproc clusters from the CLI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Will you ever have a PetaByte of data? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Equivalent to 27 yearrs to download over 4G, Every tweet twittered x 50, 2 micrograms of DNA, 1 day's worth of video uploaded to Youtube
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dataproc eases Hadoop management:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Google manages:  Monitoring/Health, Dev Integration, Manual Scaling, Job submission, GCP connectivity, Deployment, Creation
+-Typical Dataproc deployments involve: Create, Configure, and Use Cluster (&lt;90 sec)
+-Dataproc is a managed service for creating clusters of computers that can be used to run Hadoop and Spark applications. 
+-Dataproc clusters are pre-configured with software commonly used in Hadoop ecosystems like Python, Java, PySpark, Pig and Hive, and HDFS.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb102-creating-dataproc-clusters</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +2256,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2003,14 +2279,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2027,20 +2304,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2049,8 +2314,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2070,6 +2362,10 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2449,33 +2745,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="2.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="87.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -2510,8 +2806,8 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
+      <c r="C7" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2537,24 +2833,24 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>177</v>
+      <c r="C10" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
+      <c r="C12" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2564,752 +2860,857 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
+      <c r="C13" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" t="s">
-        <v>38</v>
+      <c r="C14" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="1" t="s">
+      <c r="C17" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:4">
+      <c r="C21" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    <row r="24" spans="1:4">
+      <c r="C24" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="C26" s="1" t="s">
+      <c r="C25" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="1" t="s">
+      <c r="C28" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>84</v>
+    <row r="31" spans="1:4">
+      <c r="C31" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>160</v>
+      <c r="C34" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>161</v>
+        <v>23</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>175</v>
-      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>176</v>
+      <c r="C37" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>178</v>
+      <c r="C38" s="16" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>179</v>
+      <c r="C39" s="16" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>180</v>
+      <c r="C40" s="16" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>181</v>
+      <c r="C41" s="16" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="C45" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="C47" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="C43" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="C44" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="C46" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="C48" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="C49" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="C50" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="25">
+      <c r="A59" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="17"/>
+    </row>
+    <row r="60" spans="1:3" ht="20">
+      <c r="A60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" spans="1:3" ht="135">
+      <c r="A61" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="C57" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="1" t="s">
+    <row r="62" spans="1:3" ht="135" customHeight="1">
+      <c r="A62" s="8"/>
+      <c r="C62" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="58" customHeight="1">
+      <c r="A63" s="8"/>
+      <c r="C63" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="25">
-      <c r="A59" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" ht="20">
-      <c r="A60" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" ht="75">
-      <c r="A61" s="9" t="s">
+    <row r="64" spans="1:3" ht="75">
+      <c r="A64" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="135" customHeight="1">
-      <c r="A62" s="9"/>
-      <c r="C62" s="7" t="s">
+      <c r="C64" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="75">
+      <c r="A65" s="6"/>
+      <c r="C65" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="75">
-      <c r="A63" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="7" t="s">
+    <row r="66" spans="1:3" ht="225">
+      <c r="A66" s="6"/>
+      <c r="C66" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20">
+      <c r="A68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="15"/>
+    </row>
+    <row r="69" spans="1:3" ht="105">
+      <c r="A69" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="75">
-      <c r="A64" s="7"/>
-      <c r="C64" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="225">
-      <c r="A65" s="7"/>
-      <c r="C65" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="7" t="s">
+      <c r="C69" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="60">
+      <c r="A70" s="8"/>
+      <c r="C70" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20">
-      <c r="A67" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" ht="105">
-      <c r="A68" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="60">
-      <c r="A69" s="9"/>
-      <c r="C69" s="7" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="75">
+      <c r="A72" s="8"/>
+      <c r="C72" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="90">
+      <c r="A73" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="60">
+      <c r="A74" s="8"/>
+      <c r="C74" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="90">
+      <c r="A75" s="8"/>
+      <c r="C75" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="60">
+      <c r="A76" s="8"/>
+      <c r="C76" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="75">
-      <c r="A71" s="9"/>
-      <c r="C71" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="90">
-      <c r="A72" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="60">
-      <c r="A73" s="9"/>
-      <c r="C73" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="90">
-      <c r="A74" s="9"/>
-      <c r="C74" s="7" t="s">
+      <c r="C77" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="60">
-      <c r="A75" s="9"/>
-      <c r="C75" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="270">
-      <c r="A77" s="9"/>
-      <c r="C77" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="20">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:3" ht="270">
+      <c r="A78" s="8"/>
+      <c r="C78" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="20">
+      <c r="A79" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="15"/>
+    </row>
+    <row r="80" spans="1:3" ht="60">
+      <c r="A80" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3" ht="60">
-      <c r="A79" s="9" t="s">
+    </row>
+    <row r="81" spans="1:3" ht="60">
+      <c r="A81" s="8"/>
+      <c r="C81" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="14" t="s">
+    </row>
+    <row r="82" spans="1:3" ht="90">
+      <c r="A82" s="8"/>
+      <c r="C82" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="60">
-      <c r="A80" s="9"/>
-      <c r="C80" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="90">
-      <c r="A81" s="9"/>
-      <c r="C81" s="7" t="s">
+    <row r="84" spans="1:3" ht="120">
+      <c r="A84" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="9" t="s">
+      <c r="C84" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="120">
-      <c r="A83" s="9" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="13" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="401" customHeight="1">
+      <c r="A86" s="8"/>
+      <c r="C86" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="75">
+      <c r="A87" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="401" customHeight="1">
-      <c r="A85" s="9"/>
-      <c r="C85" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="75">
-      <c r="A86" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="105">
-      <c r="A87" s="9"/>
       <c r="C87" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="400" customHeight="1">
-      <c r="A89" s="9"/>
-      <c r="C89" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="20">
-      <c r="A90" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="1:3" ht="225">
-      <c r="A91" s="9" t="s">
+    <row r="88" spans="1:3" ht="105">
+      <c r="A88" s="8"/>
+      <c r="C88" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="409" customHeight="1">
+      <c r="A90" s="8"/>
+      <c r="C90" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="20">
+      <c r="A91" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="15"/>
+    </row>
+    <row r="92" spans="1:3" ht="225">
+      <c r="A92" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="75">
+      <c r="A93" s="8"/>
+      <c r="C93" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="7" t="s">
+    </row>
+    <row r="94" spans="1:3" ht="90">
+      <c r="A94" s="8"/>
+      <c r="C94" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="150">
+      <c r="A95" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="75">
-      <c r="A92" s="9"/>
-      <c r="C92" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="90">
-      <c r="A93" s="9"/>
-      <c r="C93" s="7" t="s">
+    <row r="97" spans="1:3" ht="105">
+      <c r="A97" s="8"/>
+      <c r="C97" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="150">
-      <c r="A94" s="9" t="s">
+    <row r="98" spans="1:3" ht="285">
+      <c r="A98" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C94" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="C98" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="105">
-      <c r="A96" s="9"/>
-      <c r="C96" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="285">
-      <c r="A97" s="9" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="8"/>
+      <c r="C100" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="8"/>
+      <c r="C101" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="45">
+      <c r="A102" s="8"/>
+      <c r="C102" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="195">
+      <c r="A103" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C103" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="90">
+      <c r="A104" s="8"/>
+      <c r="C104" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="9"/>
-      <c r="C99" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="9"/>
-      <c r="C100" s="1" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="8"/>
+      <c r="C106" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="105">
+      <c r="A107" s="8"/>
+      <c r="C107" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="75">
+      <c r="A108" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="45">
-      <c r="A101" s="9"/>
-      <c r="C101" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="195">
-      <c r="A102" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C102" s="7" t="s">
+    <row r="109" spans="1:3" ht="20">
+      <c r="A109" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="15"/>
+    </row>
+    <row r="110" spans="1:3" ht="165">
+      <c r="A110" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="90">
-      <c r="A103" s="9"/>
-      <c r="C103" s="7" t="s">
+      <c r="C110" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="150">
+      <c r="A111" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="9"/>
-      <c r="C105" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="105">
-      <c r="A106" s="9"/>
-      <c r="C106" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="75">
-      <c r="A107" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="20">
-      <c r="A108" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-    </row>
-    <row r="109" spans="1:3" ht="165">
-      <c r="A109" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="150">
-      <c r="A110" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="9"/>
-    </row>
-    <row r="112" spans="1:3" ht="25">
-      <c r="A112" s="11" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="8"/>
+    </row>
+    <row r="113" spans="1:3" ht="25">
+      <c r="A113" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="17"/>
+    </row>
+    <row r="114" spans="1:3" ht="20">
+      <c r="A114" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="21"/>
+    </row>
+    <row r="115" spans="1:3" ht="60">
+      <c r="A115" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="9"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="9"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="9"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="9"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="9"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="9"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="9"/>
+      <c r="C115" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30">
+      <c r="A116" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30">
+      <c r="A117" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30">
+      <c r="A118" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="120">
+      <c r="A119" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="135">
+      <c r="A120" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="180">
+      <c r="A121" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="240">
+      <c r="A123" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="60">
+      <c r="A125" s="8"/>
+      <c r="C125" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="8"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="8"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="8"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="8"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="8"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="8"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="8"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="8"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="8"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1"/>
-    <hyperlink ref="B35" r:id="rId2"/>
+    <hyperlink ref="B35" r:id="rId1"/>
+    <hyperlink ref="B36" r:id="rId2"/>
     <hyperlink ref="B34" r:id="rId3"/>
-    <hyperlink ref="B36" r:id="rId4"/>
-    <hyperlink ref="B32" r:id="rId5"/>
-    <hyperlink ref="C34" r:id="rId6"/>
-    <hyperlink ref="C50" r:id="rId7"/>
-    <hyperlink ref="C53" r:id="rId8" location="financial_services"/>
-    <hyperlink ref="C17" r:id="rId9" location="ten-min-tutorial-section" display="https://cloud.google.com/getting-started/?utm_source=free-trial-Y&amp;utm_medium=email&amp;utm_campaign=ft-welcome&amp;utm_content=W1#ten-min-tutorial-section"/>
-    <hyperlink ref="C55" r:id="rId10"/>
-    <hyperlink ref="C54" r:id="rId11"/>
-    <hyperlink ref="C18" r:id="rId12"/>
-    <hyperlink ref="C20" r:id="rId13"/>
-    <hyperlink ref="C23" r:id="rId14"/>
-    <hyperlink ref="C26" r:id="rId15"/>
-    <hyperlink ref="C21" r:id="rId16"/>
-    <hyperlink ref="C27" r:id="rId17"/>
-    <hyperlink ref="C70" r:id="rId18"/>
-    <hyperlink ref="C66" r:id="rId19"/>
-    <hyperlink ref="C29" r:id="rId20"/>
-    <hyperlink ref="C76" r:id="rId21"/>
-    <hyperlink ref="C22" r:id="rId22"/>
-    <hyperlink ref="C25" r:id="rId23"/>
-    <hyperlink ref="C28" r:id="rId24"/>
-    <hyperlink ref="C19" r:id="rId25"/>
-    <hyperlink ref="C52" r:id="rId26"/>
-    <hyperlink ref="C32" r:id="rId27"/>
-    <hyperlink ref="C82" r:id="rId28"/>
-    <hyperlink ref="C84" r:id="rId29"/>
-    <hyperlink ref="C88" r:id="rId30"/>
-    <hyperlink ref="C31" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C51" r:id="rId33"/>
-    <hyperlink ref="C95" r:id="rId34"/>
-    <hyperlink ref="C98" r:id="rId35"/>
-    <hyperlink ref="C99" r:id="rId36"/>
-    <hyperlink ref="C104" r:id="rId37"/>
-    <hyperlink ref="C105" r:id="rId38"/>
-    <hyperlink ref="C49" r:id="rId39"/>
-    <hyperlink ref="C35" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C44" r:id="rId42"/>
-    <hyperlink ref="C45" r:id="rId43"/>
-    <hyperlink ref="C48" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C36" r:id="rId47"/>
-    <hyperlink ref="C37" r:id="rId48"/>
-    <hyperlink ref="B42" r:id="rId49"/>
-    <hyperlink ref="C38" r:id="rId50"/>
-    <hyperlink ref="C39" r:id="rId51"/>
-    <hyperlink ref="C40" r:id="rId52"/>
-    <hyperlink ref="C41" r:id="rId53"/>
-    <hyperlink ref="C56" r:id="rId54"/>
-    <hyperlink ref="C58" r:id="rId55"/>
+    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C50" r:id="rId5"/>
+    <hyperlink ref="C53" r:id="rId6" location="financial_services"/>
+    <hyperlink ref="C17" r:id="rId7" location="ten-min-tutorial-section" display="https://cloud.google.com/getting-started/?utm_source=free-trial-Y&amp;utm_medium=email&amp;utm_campaign=ft-welcome&amp;utm_content=W1#ten-min-tutorial-section"/>
+    <hyperlink ref="C55" r:id="rId8"/>
+    <hyperlink ref="C54" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C20" r:id="rId11"/>
+    <hyperlink ref="C23" r:id="rId12"/>
+    <hyperlink ref="C26" r:id="rId13"/>
+    <hyperlink ref="C21" r:id="rId14"/>
+    <hyperlink ref="C27" r:id="rId15"/>
+    <hyperlink ref="C71" r:id="rId16"/>
+    <hyperlink ref="C67" r:id="rId17"/>
+    <hyperlink ref="C29" r:id="rId18"/>
+    <hyperlink ref="C77" r:id="rId19"/>
+    <hyperlink ref="C22" r:id="rId20"/>
+    <hyperlink ref="C25" r:id="rId21"/>
+    <hyperlink ref="C28" r:id="rId22"/>
+    <hyperlink ref="C19" r:id="rId23"/>
+    <hyperlink ref="C52" r:id="rId24"/>
+    <hyperlink ref="C34" r:id="rId25"/>
+    <hyperlink ref="C83" r:id="rId26"/>
+    <hyperlink ref="C85" r:id="rId27"/>
+    <hyperlink ref="C89" r:id="rId28"/>
+    <hyperlink ref="C33" r:id="rId29"/>
+    <hyperlink ref="C35" r:id="rId30"/>
+    <hyperlink ref="C51" r:id="rId31"/>
+    <hyperlink ref="C96" r:id="rId32"/>
+    <hyperlink ref="C99" r:id="rId33"/>
+    <hyperlink ref="C100" r:id="rId34"/>
+    <hyperlink ref="C105" r:id="rId35"/>
+    <hyperlink ref="C106" r:id="rId36"/>
+    <hyperlink ref="C49" r:id="rId37"/>
+    <hyperlink ref="C31" r:id="rId38"/>
+    <hyperlink ref="C43" r:id="rId39"/>
+    <hyperlink ref="C44" r:id="rId40"/>
+    <hyperlink ref="C45" r:id="rId41"/>
+    <hyperlink ref="C48" r:id="rId42"/>
+    <hyperlink ref="C46" r:id="rId43"/>
+    <hyperlink ref="C47" r:id="rId44"/>
+    <hyperlink ref="C36" r:id="rId45"/>
+    <hyperlink ref="C38" r:id="rId46"/>
+    <hyperlink ref="B43" r:id="rId47"/>
+    <hyperlink ref="C39" r:id="rId48"/>
+    <hyperlink ref="C40" r:id="rId49"/>
+    <hyperlink ref="C41" r:id="rId50"/>
+    <hyperlink ref="C42" r:id="rId51"/>
+    <hyperlink ref="C56" r:id="rId52"/>
+    <hyperlink ref="C58" r:id="rId53"/>
+    <hyperlink ref="C122" r:id="rId54"/>
+    <hyperlink ref="C124" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3332,193 +3733,193 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="15" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="15" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="15" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="15" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="15" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="15" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="15" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="15" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="15" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="15" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="15" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="10" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/AWS_GCP.xlsx
+++ b/AWS_GCP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="0" windowWidth="19880" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="1400" windowWidth="24860" windowHeight="12940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="317">
   <si>
     <t>AWS</t>
   </si>
@@ -52,15 +52,9 @@
     <t>Database</t>
   </si>
   <si>
-    <t>RDS Aurora</t>
-  </si>
-  <si>
     <t>Developer Tools</t>
   </si>
   <si>
-    <t>Management</t>
-  </si>
-  <si>
     <t>CodePipeline, CLI</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>Kinesis</t>
   </si>
   <si>
-    <t>RedShift</t>
-  </si>
-  <si>
     <t>EMR</t>
   </si>
   <si>
@@ -121,18 +112,6 @@
     <t>https://cloud.google.com/docs/tutorials#financial_services</t>
   </si>
   <si>
-    <t>BigQuery - Fully managed large scale data warehouse</t>
-  </si>
-  <si>
-    <t>Cloud DataProc - Managed Spark and Hadoop service</t>
-  </si>
-  <si>
-    <t>Cloud Machine Learning Engine - Machine Learning of any data and size</t>
-  </si>
-  <si>
-    <t>Cloud Natural Language API - Drive insights from unstructured text</t>
-  </si>
-  <si>
     <t>Google Cloud Platform Big Data and Machine Learning Fundamentals</t>
   </si>
   <si>
@@ -143,9 +122,6 @@
   </si>
   <si>
     <t>GCP Big Data Products</t>
-  </si>
-  <si>
-    <t>Cloud BigTable - Process and run queries and tolerate volume increases</t>
   </si>
   <si>
     <t>https://codelabs.developers.google.com/cpb100</t>
@@ -396,32 +372,6 @@
 2. Flexible Compute
 3. Innovative, Powerful
 4. Easy to use</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Functional View:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Foundation: Compute Engine, Cloud Storage
-2. Databases: Datastore, Cloud SQL, Cloud BigTable
-3. Analytics &amp; ML: BigQuery, Cloud Datalab, Translate API, Natural Language API
-4. Data Handling Frameworks: Cloud Pub/Sub, Cloud Dataflow, Cloud DataProc</t>
     </r>
   </si>
   <si>
@@ -465,127 +415,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Retain your agility:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Can move workload to different machine when you need
--Supplement batch jobs, fault-tolerant workloads such as Hadoop with preemptible instances
--Preemptible machines are cheaper than standard compute machines</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Use Cases:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Change where you compute- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Databases, Storage, and Hadoop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Cloud Databases for different needs (relational, key-value, NoSQL) --&gt; Cloud SQL, Cloud Datastore, Cloud BigTable
--Proven storage platform --&gt; Cloud Storage, Standard or Durable Reduced Availability
--Managed Hadoop/Spark/Pig/Hive --&gt; Cloud DataProc
-2. Scalability &amp; Reliability- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Messaging and Data Processing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Reliable, large scale messaging --&gt; Cloud PubSub
--Flexible, scalable and reliable data processing --&gt; Cloud DataFlow, Cloud DataProc
-3. Change how you compute- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exploration, Analytics and Intelligence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Data exploration and business intelligence --&gt; Cloud DataLab, Cloud Data Studio
--Fast &amp; economical data warehouse for large-scale data analytics --&gt; BigQuery
--Machine Learning --&gt; Cloud ML, Vision API, Speech API, Translate API</t>
-    </r>
-  </si>
-  <si>
     <t>Lab</t>
   </si>
   <si>
@@ -599,32 +428,6 @@
   </si>
   <si>
     <t>https://cloud.google.com/compute/docs/regions-zones/regions-zones?hl=en_US</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SSH into Compute and Install Git:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-cat /proc/cpuinfo
-sudo apt-get update
-sudo apt-get -y -qq install git
-git --version</t>
-    </r>
   </si>
   <si>
     <t>A Global Filesystem</t>
@@ -1023,9 +826,6 @@
   </si>
   <si>
     <t>| 10     | 18     |      1 |</t>
-  </si>
-  <si>
-    <t>SQL Relational DB</t>
   </si>
   <si>
     <t>https://cloud.google.com/sql</t>
@@ -1545,9 +1345,6 @@
     <t>https://cloud.google.com/translate</t>
   </si>
   <si>
-    <t>Data Lake / Warehouse</t>
-  </si>
-  <si>
     <t>Module 5 - Data Processing Architectures: Scalable Ingest, Transform, Load</t>
   </si>
   <si>
@@ -1755,13 +1552,7 @@
     </r>
   </si>
   <si>
-    <t>Data Ingestion / Pipeline</t>
-  </si>
-  <si>
     <t>https://cloud.google.com/dataflow</t>
-  </si>
-  <si>
-    <t>Cloud DataFlow - Fully-managed data processing service, supporting both batch and real time stream data</t>
   </si>
   <si>
     <t>https://cloud.google.com/pubsub</t>
@@ -1863,9 +1654,6 @@
 -Sustained-used discounts, users rewarded with running VMs over 25% of any calendar month
 -Compute engine custom machine type</t>
     </r>
-  </si>
-  <si>
-    <t>Why Unstructured Data?</t>
   </si>
   <si>
     <t>Four Sources of Data</t>
@@ -2029,6 +1817,812 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Will you ever have a PetaByte of data? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Equivalent to 27 yearrs to download over 4G, Every tweet twittered x 50, 2 micrograms of DNA, 1 day's worth of video uploaded to Youtube
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dataproc eases Hadoop management:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Google manages:  Monitoring/Health, Dev Integration, Manual Scaling, Job submission, GCP connectivity, Deployment, Creation
+-Typical Dataproc deployments involve: Create, Configure, and Use Cluster (&lt;90 sec)
+-Dataproc is a managed service for creating clusters of computers that can be used to run Hadoop and Spark applications. 
+-Dataproc clusters are pre-configured with software commonly used in Hadoop ecosystems like Python, Java, PySpark, Pig and Hive, and HDFS.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb102-creating-dataproc-clusters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BigQuery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Fully managed large scale data warehouse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Machine Learning Engine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Machine Learning of any data and size</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Natural Language API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Drive insights from unstructured text</t>
+    </r>
+  </si>
+  <si>
+    <t>Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>IaaS</t>
+  </si>
+  <si>
+    <t>PaaS</t>
+  </si>
+  <si>
+    <t>Containers</t>
+  </si>
+  <si>
+    <t>EC2 Container Service</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/appengine</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/container-engine</t>
+  </si>
+  <si>
+    <t>Object Storage</t>
+  </si>
+  <si>
+    <t>Block Storage</t>
+  </si>
+  <si>
+    <t>Cold Storage</t>
+  </si>
+  <si>
+    <t>File Storage</t>
+  </si>
+  <si>
+    <t>Elastic File System</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/compute/docs/disks/add-persistent-disk</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/storage/archival</t>
+  </si>
+  <si>
+    <t>http://www.averesystems.com/google-cloud-platform</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>Peering</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>Elastic Load Balancer</t>
+  </si>
+  <si>
+    <t>Direct Connect</t>
+  </si>
+  <si>
+    <t>Route 53</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/load-balancing</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/interconnect</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/dns</t>
+  </si>
+  <si>
+    <t>RDBMS</t>
+  </si>
+  <si>
+    <t>NoSQL: Indexed</t>
+  </si>
+  <si>
+    <t>NoSQL: Key-Val</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>SimpleDB</t>
+  </si>
+  <si>
+    <t>Stream Data</t>
+  </si>
+  <si>
+    <t>Batch Data</t>
+  </si>
+  <si>
+    <t>Stream Ingest</t>
+  </si>
+  <si>
+    <t>Redshift</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DataProc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Managed Spark and Hadoop service</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DataFlow </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Fully-managed data processing service, supporting both batch and real time stream data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataFlow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Fully-managed data processing service, supporting both batch and real time stream data</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>Application Services</t>
+  </si>
+  <si>
+    <t>Messaging</t>
+  </si>
+  <si>
+    <t>SNS</t>
+  </si>
+  <si>
+    <t>Mgmt Services</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackdriver Monitoring - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment Manager - </t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/monitoring</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/deployment-manager</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datalab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Interactive tool for data exploration, analysis, visualization and machine learning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cloud SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Fully managed MySQL and PostgreSQL DB service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Datastore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Highly scalable NoSQL database for non-relational data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BigTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - High performance NoSQL database for large analytical and operational workloads
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Datastore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Highly scalable NoSQL database for non-relational data</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cloud.google.com/data-studio</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>Data Exploration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data Studio (Beta) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Build dashboardsto tell great data stories</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Video Intelligence API (Beta)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Extract metadata from videos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speech API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Speech to text conversion powered by ML</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Translation API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Translate most language pairs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vision API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Derive insight from images powered by ML</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Lake</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Speech</t>
+  </si>
+  <si>
+    <t>Translate</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>AWS ElasticSearch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Launcher ElasticSearch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+  </si>
+  <si>
+    <t>Machine Types</t>
+  </si>
+  <si>
+    <t>On Demand</t>
+  </si>
+  <si>
+    <r>
+      <t>Compute Engine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Runs VMs on Google infrastructure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">App Engine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Build scalable web and mobile backends in any language on Google’s infrastructure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Container Engine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Kubernetes clusters for Docker containers managed by Google</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cloud Storage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Unified object storage with performance, reliability, and pricing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nearline / Coldline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Fast, low-cost, highly durable storage for data accessed &lt; 1 per month/year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Persistent Disk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Durable and high performance block storage for VM instances</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZFS / Avere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Integrate on-premise NAS architectures with GCP</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cloud.google.com/products/big-data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pub/Sub </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Fully-managed real-time messaging service that allows messaging between applications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tensorflow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - An open-source software library for Machine Intelligence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud Load Balancing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Fully distributed, software-defined, managed service for all your traffic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud Interconnect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud DNS - </t>
+  </si>
+  <si>
+    <t>Custom Machine Types</t>
+  </si>
+  <si>
+    <t>Running Dataproc Jobs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The Master node manages the cluster, choose between:</t>
     </r>
     <r>
@@ -2092,14 +2686,33 @@
 Your cluster has 10 standard workers and you manage to get 10 preemptible machines
 1. Your job will now finish in 65 mins. Calculate the min time needed with standard cluster size, then scale
 2. It will cost 40% less overall
-3. Runs for at most 24 hours, and you could get preempted or kicked off if someone needs it</t>
-    </r>
-  </si>
-  <si>
-    <t>Create a Dataproc cluster from the Web console
-SSH into the cluster and run PySpark jobs
-Add a firewall rule that allows access to your cluster from the browser
-Create, manage and delete Dataproc clusters from the CLI</t>
+3. Runs for at most 24 hours, and you could get preempted or kicked off if someone needs it
+4. Preemptible nodes don't have HDFS</t>
+    </r>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb102-running-pig-spark</t>
+  </si>
+  <si>
+    <t>Separation of Storage and Compute</t>
+  </si>
+  <si>
+    <t>Submitting Jobs</t>
+  </si>
+  <si>
+    <t>-SSH into the cluster to run Pig and Spark job
+-Create a Cloud Storage bucket to store job input files
+-Work with HDFS</t>
+  </si>
+  <si>
+    <t>-Create a Dataproc cluster from the Web console
+-SSH into the cluster and run PySpark jobs
+-Add a firewall rule that allows access to your cluster from the browser
+-Create, manage and delete Dataproc clusters from the CLI</t>
+  </si>
+  <si>
+    <t>-Can customize Cores, Memory, GPUs, and template machines from Compute Engine console
+-Can also find the name of custom machine ids from Console for Command Line</t>
   </si>
   <si>
     <r>
@@ -2110,7 +2723,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Will you ever have a PetaByte of data? </t>
+      <t>Traditional HDFS architecture</t>
     </r>
     <r>
       <rPr>
@@ -2121,7 +2734,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Equivalent to 27 yearrs to download over 4G, Every tweet twittered x 50, 2 micrograms of DNA, 1 day's worth of video uploaded to Youtube
+-To get data local to the machine, you pre-shard the data onto HDFS
+-YARN: Yet another resource negotiator
+-Have to 3x the storage allocation estimate for HDFS, and also account for growth on top of that.
+-Compute and Storage are closely tied in traditional HDFS architecture
+-Petabyte of data is loaded into Youtube everyday
+-Serverless with Cloud Storage: App Engine, BigQuery, Pub/Sub, Dataflow, All ML APIs
 </t>
     </r>
     <r>
@@ -2132,7 +2750,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dataproc eases Hadoop management:</t>
+      <t>GCP gives you serverless platform for all stages of analytisc data lifecycle</t>
     </r>
     <r>
       <rPr>
@@ -2143,14 +2761,480 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
--Google manages:  Monitoring/Health, Dev Integration, Manual Scaling, Job submission, GCP connectivity, Deployment, Creation
--Typical Dataproc deployments involve: Create, Configure, and Use Cluster (&lt;90 sec)
--Dataproc is a managed service for creating clusters of computers that can be used to run Hadoop and Spark applications. 
--Dataproc clusters are pre-configured with software commonly used in Hadoop ecosystems like Python, Java, PySpark, Pig and Hive, and HDFS.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://codelabs.developers.google.com/codelabs/cpb102-creating-dataproc-clusters</t>
+-Ingest (Pub/Sub) --&gt; Processing (Dataflow) --&gt; SQL Analytics (BigQuery) or HBase/NoSQL Analytics (BigTable)
+-Nothing to maintain, no need to guess capacity about idle resources, start, process, then delete cluster
+-Speed and focus to insights, not administration
+-Low cost, infinite scale, pay for what you use, allows for experimentation and iteration
+-BigTable is a drop-in replacement for HBase to decouple the storage and compute (Uses same API)
+-BigQuery separates storage from the database processing engine, perfect for data warehouse
+-Google Cloud Storage is optimized for fast read/write access for serverless compute</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cloud Dataproc hardware architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Networking/Cloud IAM --&gt; Dataproc Agent (Master node + Persistent Workers) --&gt; HDFS Persistent Disk --&gt; Read/Write directly from Google Cloud Storage --&gt; Cloud Bucket Storage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lift and shift work to Cloud Dataproc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Copy data to GCS - Copy your data to GCS by installing connector or copying manually
+2. Update file prefix - Update file location prefix in scripts from hdfs:// to gs:// to access data in GCS
+3. Use Cloud Dataproc - Create Cloud Dataproc cluster and run your job against data you copied to GCS.
+-Monitor Dataproc jobs from Console UI or Stackdriver</t>
+    </r>
+  </si>
+  <si>
+    <t>-Create a Cloud Storage bucket to store job input, output and application files
+-Submit jobs using the Web Console
+-Submit jobs using the CLI
+-Monitor job progress and view results</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb102-running-dataproc-jobs</t>
+  </si>
+  <si>
+    <t>Customizing Clusters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To install software on Dataproc cluster:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Write an executable program (bash, python, etc)
+2. Upload it to Cloud Storage
+3. Specify GCS location in Dataproc creation command
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Set Cluster properties:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Initialization actions
+-Cluster properties</t>
+    </r>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb102-dataproc-with-gcp</t>
+  </si>
+  <si>
+    <t>-Create a Dataproc cluster with an Initialization Action that installs Google Cloud Datalab
+-Run Jupyter Notebooks on the Dataproc cluster using Google Cloud Datalab
+-Create Python and PySpark jobs that utilize Google Cloud Storage, BigQuery and Spark.</t>
+  </si>
+  <si>
+    <t>BigQuery Support</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PySpark: Done by worker nodes
+Pandas/NumPy: Master node
+BigQuery: Compute done by Google
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hadoop/Spark jobs can read from BigQuery, but go through a temporary GCS storage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Set up connector to read from BigQuery (Bucket holding BigQuery data, Project ID, Input Directory)
+2. Load data using the BigQuery connector as a RDD
+3. The Spark code is as normal
+4. Output to sharded files in GCS
+5. Call bq load to ingest GCS files
+6. Clean up temporary files</t>
+    </r>
+  </si>
+  <si>
+    <t>Infuse your Business with Machine Learning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. From Console go to API Manager --&gt; Select ML API --&gt; Click on "Try this API in APIs Explorer"
+e.g. https://developers.google.com/apis-explorer/?hl=en_US#p/translate/v2/
+2. ML APIs are accessed through REST APIs, taking Image and JSON requests as inputs and outputting JSON response as output
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example Use Cases:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Go from speech to action with bots: https://api.ai
+-Ocado: Uses the NLP to process customer claims and feedback
+-Wootric: Collects both numeric and qualitative feedback
+https://cloud.google.com/blog/big-data/2017/03/analyzing-customer-feedback-using-machine-learning</t>
+    </r>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb102-machine-learning-to-big-data-processing</t>
+  </si>
+  <si>
+    <t>-Enable the Google Cloud Platform machine learning APIs
+-Find specific text in a corpus of scanned documents
+-Translate a book from English to Spanish using the Translate API
+-Perform sentiment analysis on text resulting from a BigQuery query</t>
+  </si>
+  <si>
+    <t>Introduction to Cloud Dataproc</t>
+  </si>
+  <si>
+    <t>Leveraging GCP</t>
+  </si>
+  <si>
+    <t>Intro to Analyzing Unstructured Data</t>
+  </si>
+  <si>
+    <t>Serverless Data Analysis with Google BigQuery and Cloud Dataflow</t>
+  </si>
+  <si>
+    <t>Introduction to BigQuery</t>
+  </si>
+  <si>
+    <t>What is BigQuery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BigQuery Offers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Interactive analysis of petabyte scale databases
+2. Familiar SQL query language and functions
+3. Many ways to ingest, transform, load, export data to/from BigQuery
+4. Nested and repeated fields, user-defined functions in JavaScript
+5. Data storage is expensive; queries charged on amount of data processed (pay-per-use query)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BigQuery is Great for:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Near-real time analysis of massive datasets
+2. No-ops/Serverless, pay per use
+3. Durable (replicated), inexpensive storage
+4. Immutable audit logs
+5. Mashing up different datasets to derive insight</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Functional View:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Foundation: Compute Engine, Cloud Storage
+2. Databases: Datastore, Cloud SQL, Cloud BigTable
+3. Analytics &amp; ML: BigQuery, Cloud Datalab, Translate API, Natural Language API
+4. Data Handling Frameworks: Cloud Pub/Sub, Cloud Dataflow, Cloud Dataproc</t>
+    </r>
+  </si>
+  <si>
+    <t>Functional View of Platform</t>
+  </si>
+  <si>
+    <t>Google Cloud Big Data and ML Platform</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Cases:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Change where you compute- Databases, Storage, and Hadoop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Cloud Databases for different needs (relational, key-value, NoSQL) --&gt; Cloud SQL, Cloud Datastore, Cloud BigTable
+-Proven storage platform --&gt; Cloud Storage, Standard or Durable Reduced Availability
+-Managed Hadoop/Spark/Pig/Hive --&gt; Cloud Dataproc
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scalability &amp; Reliability- Messaging and Data Processing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Reliable, large scale messaging --&gt; Cloud PubSub
+-Flexible, scalable and reliable data processing --&gt; Cloud DataFlow, Cloud Dataproc
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Change how you compute- Exploration, Analytics and Intelligence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Data exploration and business intelligence --&gt; Cloud DataLab, Cloud Data Studio
+-Fast &amp; economical data warehouse for large-scale data analytics --&gt; BigQuery
+-Machine Learning --&gt; Cloud ML, Vision API, Speech API, Translate API</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Retain your agility:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Can move workload to different machine types when you need
+-Supplement batch jobs, fault-tolerant workloads such as Hadoop with preemptible instances
+-Preemptible machines are cheaper than standard compute machines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Create a Compute Engine instance with the necessary Access and Security
+-SSH into the instance
+-Install the software package Git (for source code version control)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -2256,7 +3340,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2283,8 +3367,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2299,50 +3414,57 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2366,6 +3488,37 @@
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2407,6 +3560,49 @@
         <a:xfrm>
           <a:off x="114300" y="8005424"/>
           <a:ext cx="8420100" cy="4313576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>659282</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="12585700"/>
+          <a:ext cx="10425582" cy="4851400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2745,972 +3941,1602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="2.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="87.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" customWidth="1"/>
+    <col min="4" max="4" width="89.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" ht="25">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D3" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
+      <c r="D6" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
+      <c r="D7" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D8" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="C24" s="10"/>
+      <c r="D24" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" s="10"/>
+      <c r="D25" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="10"/>
+      <c r="D26" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="10"/>
+      <c r="D27" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="10"/>
+      <c r="D28" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C33" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20">
+      <c r="A35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="D37" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="D39" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="D40" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="D41" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="43" spans="1:5">
+      <c r="D43" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="B47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="D54" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="D55" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B62" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="B71" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="D72" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>263</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="D89" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="D90" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="25">
+      <c r="A91" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="1:4" ht="20">
+      <c r="A92" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:4" ht="135">
+      <c r="A93" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="D93" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="135" customHeight="1">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="D94" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="58" customHeight="1">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="D95" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="75">
+      <c r="A96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="D96" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="75">
+      <c r="A97" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B97" s="6"/>
+      <c r="D97" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="225">
+      <c r="A98" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="D98" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="D99" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="20">
+      <c r="A100" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="12"/>
+    </row>
+    <row r="101" spans="1:4" ht="105">
+      <c r="A101" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="D101" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="60">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="D102" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="D103" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="45">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="D104" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="90">
+      <c r="A105" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="D105" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="60">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="D106" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="90">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="D107" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="60">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="D108" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="D109" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="270">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="D110" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="20">
+      <c r="A111" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="12"/>
+    </row>
+    <row r="112" spans="1:4" ht="60">
+      <c r="A112" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="D112" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="60">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="D113" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="90">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="D114" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="D115" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="120">
+      <c r="A116" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="D116" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="D117" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="401" customHeight="1">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="D118" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="75">
+      <c r="A119" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="D119" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="105">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="D120" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="D121" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="409" customHeight="1">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="D122" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20">
+      <c r="A123" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="12"/>
+    </row>
+    <row r="124" spans="1:4" ht="225">
+      <c r="A124" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="D124" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="75">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="D125" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="90">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="D126" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="150">
+      <c r="A127" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="D127" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="D128" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="105">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="D129" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="285">
+      <c r="A130" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="D130" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="D131" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="D132" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="D133" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="45">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="D134" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="195">
+      <c r="A135" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="D135" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="90">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="D136" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c r="D137" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="D138" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="105">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="D139" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="75">
+      <c r="A140" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="D140" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="20">
+      <c r="A141" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="12"/>
+    </row>
+    <row r="142" spans="1:4" ht="165">
+      <c r="A142" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="D142" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="150">
+      <c r="A143" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c r="D143" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
+    </row>
+    <row r="145" spans="1:4" ht="25">
+      <c r="A145" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="8"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="17"/>
+    </row>
+    <row r="146" spans="1:4" ht="20">
+      <c r="A146" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="23"/>
+    </row>
+    <row r="147" spans="1:4" ht="60">
+      <c r="A147" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="D147" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="30">
+      <c r="A148" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c r="D148" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="30">
+      <c r="A149" s="7" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="C20" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="C21" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="C22" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="C24" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="C27" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="C30" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="C31" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="C32" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="16" t="s">
+      <c r="B149" s="7"/>
+      <c r="D149" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="16" t="s">
+    <row r="150" spans="1:4" ht="30">
+      <c r="A150" s="7" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="16" t="s">
+      <c r="B150" s="7"/>
+      <c r="D150" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="16" t="s">
+    <row r="151" spans="1:4" ht="120">
+      <c r="A151" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="D151" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="135">
+      <c r="A152" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" s="7"/>
+      <c r="D152" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="180">
+      <c r="A153" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="C44" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="C46" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="C48" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="C49" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="C50" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" s="16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="C58" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="25">
-      <c r="A59" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="17"/>
-    </row>
-    <row r="60" spans="1:3" ht="20">
-      <c r="A60" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="15"/>
-    </row>
-    <row r="61" spans="1:3" ht="135">
-      <c r="A61" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B153" s="7"/>
+      <c r="D153" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="135" customHeight="1">
-      <c r="A62" s="8"/>
-      <c r="C62" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="58" customHeight="1">
-      <c r="A63" s="8"/>
-      <c r="C63" s="7" t="s">
+      <c r="B154" s="7"/>
+      <c r="D154" s="16" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="75">
-      <c r="A64" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="75">
-      <c r="A65" s="6"/>
-      <c r="C65" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="225">
-      <c r="A66" s="6"/>
-      <c r="C66" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20">
-      <c r="A68" s="5" t="s">
+    <row r="155" spans="1:4" ht="255">
+      <c r="A155" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B155" s="7"/>
+      <c r="D155" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="15"/>
-    </row>
-    <row r="69" spans="1:3" ht="105">
-      <c r="A69" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="60">
-      <c r="A70" s="8"/>
-      <c r="C70" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="75">
-      <c r="A72" s="8"/>
-      <c r="C72" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="90">
-      <c r="A73" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="60">
-      <c r="A74" s="8"/>
-      <c r="C74" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="90">
-      <c r="A75" s="8"/>
-      <c r="C75" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="60">
-      <c r="A76" s="8"/>
-      <c r="C76" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="270">
-      <c r="A78" s="8"/>
-      <c r="C78" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="20">
-      <c r="A79" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="15"/>
-    </row>
-    <row r="80" spans="1:3" ht="60">
-      <c r="A80" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="60">
-      <c r="A81" s="8"/>
-      <c r="C81" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="90">
-      <c r="A82" s="8"/>
-      <c r="C82" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="120">
-      <c r="A84" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="401" customHeight="1">
-      <c r="A86" s="8"/>
-      <c r="C86" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="75">
-      <c r="A87" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="105">
-      <c r="A88" s="8"/>
-      <c r="C88" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="409" customHeight="1">
-      <c r="A90" s="8"/>
-      <c r="C90" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="20">
-      <c r="A91" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="15"/>
-    </row>
-    <row r="92" spans="1:3" ht="225">
-      <c r="A92" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="75">
-      <c r="A93" s="8"/>
-      <c r="C93" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="90">
-      <c r="A94" s="8"/>
-      <c r="C94" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="150">
-      <c r="A95" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="105">
-      <c r="A97" s="8"/>
-      <c r="C97" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="285">
-      <c r="A98" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="8"/>
-      <c r="C100" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="8"/>
-      <c r="C101" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="45">
-      <c r="A102" s="8"/>
-      <c r="C102" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="195">
-      <c r="A103" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="90">
-      <c r="A104" s="8"/>
-      <c r="C104" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="8"/>
-      <c r="C106" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="105">
-      <c r="A107" s="8"/>
-      <c r="C107" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="75">
-      <c r="A108" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="20">
-      <c r="A109" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="15"/>
-    </row>
-    <row r="110" spans="1:3" ht="165">
-      <c r="A110" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="150">
-      <c r="A111" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="8"/>
-    </row>
-    <row r="113" spans="1:3" ht="25">
-      <c r="A113" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="17"/>
-    </row>
-    <row r="114" spans="1:3" ht="20">
-      <c r="A114" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C114" s="21"/>
-    </row>
-    <row r="115" spans="1:3" ht="60">
-      <c r="A115" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="30">
-      <c r="A116" s="8" t="s">
+      <c r="B156" s="7"/>
+      <c r="D156" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="30">
-      <c r="A117" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="30">
-      <c r="A118" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="120">
-      <c r="A119" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="135">
-      <c r="A120" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="180">
-      <c r="A121" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="240">
-      <c r="A123" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="60">
-      <c r="A125" s="8"/>
-      <c r="C125" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="8"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="8"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="8"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="8"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="8"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="8"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="8"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="8"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="8"/>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="8"/>
+    </row>
+    <row r="157" spans="1:4" ht="60">
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="D157" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="30">
+      <c r="A158" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B158" s="7"/>
+      <c r="D158" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="20">
+      <c r="A159" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="23"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B160" s="7"/>
+      <c r="D160" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="45">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="D161" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="255">
+      <c r="A162" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c r="D162" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="135">
+      <c r="A163" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="D163" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="D164" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="60">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="D165" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="20">
+      <c r="A166" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="23"/>
+    </row>
+    <row r="167" spans="1:4" ht="120">
+      <c r="A167" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B167" s="7"/>
+      <c r="D167" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B168" s="7"/>
+      <c r="D168" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="45">
+      <c r="D169" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="165">
+      <c r="A170" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="20">
+      <c r="A171" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="23"/>
+    </row>
+    <row r="172" spans="1:4" ht="150">
+      <c r="A172" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="60">
+      <c r="D174" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="25">
+      <c r="A176" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="17"/>
+    </row>
+    <row r="177" spans="1:4" ht="20">
+      <c r="A177" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="23"/>
+    </row>
+    <row r="178" spans="1:4" ht="195">
+      <c r="A178" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1"/>
-    <hyperlink ref="B36" r:id="rId2"/>
-    <hyperlink ref="B34" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
-    <hyperlink ref="C50" r:id="rId5"/>
-    <hyperlink ref="C53" r:id="rId6" location="financial_services"/>
-    <hyperlink ref="C17" r:id="rId7" location="ten-min-tutorial-section" display="https://cloud.google.com/getting-started/?utm_source=free-trial-Y&amp;utm_medium=email&amp;utm_campaign=ft-welcome&amp;utm_content=W1#ten-min-tutorial-section"/>
-    <hyperlink ref="C55" r:id="rId8"/>
-    <hyperlink ref="C54" r:id="rId9"/>
-    <hyperlink ref="C18" r:id="rId10"/>
-    <hyperlink ref="C20" r:id="rId11"/>
-    <hyperlink ref="C23" r:id="rId12"/>
-    <hyperlink ref="C26" r:id="rId13"/>
-    <hyperlink ref="C21" r:id="rId14"/>
-    <hyperlink ref="C27" r:id="rId15"/>
-    <hyperlink ref="C71" r:id="rId16"/>
-    <hyperlink ref="C67" r:id="rId17"/>
-    <hyperlink ref="C29" r:id="rId18"/>
-    <hyperlink ref="C77" r:id="rId19"/>
-    <hyperlink ref="C22" r:id="rId20"/>
-    <hyperlink ref="C25" r:id="rId21"/>
-    <hyperlink ref="C28" r:id="rId22"/>
-    <hyperlink ref="C19" r:id="rId23"/>
-    <hyperlink ref="C52" r:id="rId24"/>
-    <hyperlink ref="C34" r:id="rId25"/>
-    <hyperlink ref="C83" r:id="rId26"/>
-    <hyperlink ref="C85" r:id="rId27"/>
-    <hyperlink ref="C89" r:id="rId28"/>
-    <hyperlink ref="C33" r:id="rId29"/>
-    <hyperlink ref="C35" r:id="rId30"/>
-    <hyperlink ref="C51" r:id="rId31"/>
-    <hyperlink ref="C96" r:id="rId32"/>
-    <hyperlink ref="C99" r:id="rId33"/>
-    <hyperlink ref="C100" r:id="rId34"/>
-    <hyperlink ref="C105" r:id="rId35"/>
-    <hyperlink ref="C106" r:id="rId36"/>
-    <hyperlink ref="C49" r:id="rId37"/>
-    <hyperlink ref="C31" r:id="rId38"/>
-    <hyperlink ref="C43" r:id="rId39"/>
-    <hyperlink ref="C44" r:id="rId40"/>
-    <hyperlink ref="C45" r:id="rId41"/>
-    <hyperlink ref="C48" r:id="rId42"/>
-    <hyperlink ref="C46" r:id="rId43"/>
-    <hyperlink ref="C47" r:id="rId44"/>
-    <hyperlink ref="C36" r:id="rId45"/>
-    <hyperlink ref="C38" r:id="rId46"/>
-    <hyperlink ref="B43" r:id="rId47"/>
-    <hyperlink ref="C39" r:id="rId48"/>
-    <hyperlink ref="C40" r:id="rId49"/>
-    <hyperlink ref="C41" r:id="rId50"/>
-    <hyperlink ref="C42" r:id="rId51"/>
-    <hyperlink ref="C56" r:id="rId52"/>
-    <hyperlink ref="C58" r:id="rId53"/>
-    <hyperlink ref="C122" r:id="rId54"/>
-    <hyperlink ref="C124" r:id="rId55"/>
+    <hyperlink ref="C62" r:id="rId1"/>
+    <hyperlink ref="C69" r:id="rId2"/>
+    <hyperlink ref="C80" r:id="rId3"/>
+    <hyperlink ref="D61" r:id="rId4"/>
+    <hyperlink ref="D78" r:id="rId5"/>
+    <hyperlink ref="D85" r:id="rId6" location="financial_services"/>
+    <hyperlink ref="D36" r:id="rId7" location="ten-min-tutorial-section" display="https://cloud.google.com/getting-started/?utm_source=free-trial-Y&amp;utm_medium=email&amp;utm_campaign=ft-welcome&amp;utm_content=W1#ten-min-tutorial-section"/>
+    <hyperlink ref="D87" r:id="rId8"/>
+    <hyperlink ref="D86" r:id="rId9"/>
+    <hyperlink ref="D37" r:id="rId10"/>
+    <hyperlink ref="D39" r:id="rId11"/>
+    <hyperlink ref="D42" r:id="rId12"/>
+    <hyperlink ref="D47" r:id="rId13"/>
+    <hyperlink ref="D40" r:id="rId14"/>
+    <hyperlink ref="D48" r:id="rId15"/>
+    <hyperlink ref="D103" r:id="rId16"/>
+    <hyperlink ref="D99" r:id="rId17"/>
+    <hyperlink ref="D54" r:id="rId18"/>
+    <hyperlink ref="D109" r:id="rId19"/>
+    <hyperlink ref="D41" r:id="rId20"/>
+    <hyperlink ref="D44" r:id="rId21"/>
+    <hyperlink ref="D50" r:id="rId22"/>
+    <hyperlink ref="D38" r:id="rId23"/>
+    <hyperlink ref="D84" r:id="rId24"/>
+    <hyperlink ref="D80" r:id="rId25"/>
+    <hyperlink ref="D115" r:id="rId26"/>
+    <hyperlink ref="D117" r:id="rId27"/>
+    <hyperlink ref="D121" r:id="rId28"/>
+    <hyperlink ref="D59" r:id="rId29"/>
+    <hyperlink ref="D63" r:id="rId30"/>
+    <hyperlink ref="D79" r:id="rId31"/>
+    <hyperlink ref="D128" r:id="rId32"/>
+    <hyperlink ref="D131" r:id="rId33"/>
+    <hyperlink ref="D132" r:id="rId34"/>
+    <hyperlink ref="D137" r:id="rId35"/>
+    <hyperlink ref="D138" r:id="rId36"/>
+    <hyperlink ref="D73" r:id="rId37"/>
+    <hyperlink ref="D60" r:id="rId38"/>
+    <hyperlink ref="D71" r:id="rId39"/>
+    <hyperlink ref="D77" r:id="rId40"/>
+    <hyperlink ref="D72" r:id="rId41"/>
+    <hyperlink ref="D76" r:id="rId42"/>
+    <hyperlink ref="D75" r:id="rId43"/>
+    <hyperlink ref="D66" r:id="rId44"/>
+    <hyperlink ref="D64" r:id="rId45"/>
+    <hyperlink ref="C71" r:id="rId46"/>
+    <hyperlink ref="D65" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D69" r:id="rId49"/>
+    <hyperlink ref="D70" r:id="rId50"/>
+    <hyperlink ref="D88" r:id="rId51"/>
+    <hyperlink ref="D90" r:id="rId52"/>
+    <hyperlink ref="D154" r:id="rId53"/>
+    <hyperlink ref="D156" r:id="rId54"/>
+    <hyperlink ref="D45" r:id="rId55"/>
+    <hyperlink ref="D46" r:id="rId56"/>
+    <hyperlink ref="D51" r:id="rId57"/>
+    <hyperlink ref="D52" r:id="rId58"/>
+    <hyperlink ref="D53" r:id="rId59"/>
+    <hyperlink ref="D56" r:id="rId60"/>
+    <hyperlink ref="D57" r:id="rId61"/>
+    <hyperlink ref="D58" r:id="rId62"/>
+    <hyperlink ref="D81" r:id="rId63"/>
+    <hyperlink ref="D82" r:id="rId64"/>
+    <hyperlink ref="D83" r:id="rId65"/>
+    <hyperlink ref="D68" r:id="rId66"/>
+    <hyperlink ref="D74" r:id="rId67"/>
+    <hyperlink ref="D62" r:id="rId68"/>
+    <hyperlink ref="D160" r:id="rId69"/>
+    <hyperlink ref="D164" r:id="rId70"/>
+    <hyperlink ref="D168" r:id="rId71"/>
+    <hyperlink ref="D173" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3726,200 +5552,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N90" sqref="N90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="9" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/AWS_GCP.xlsx
+++ b/AWS_GCP.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1400" windowWidth="24860" windowHeight="12940" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="1395" windowWidth="24855" windowHeight="9945" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Master Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="GCP" sheetId="5" r:id="rId2"/>
+    <sheet name="POCs + Sample Data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="370">
   <si>
     <t>AWS</t>
   </si>
@@ -46,18 +47,12 @@
     <t>EBS</t>
   </si>
   <si>
-    <t>Glacier</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
     <t>Developer Tools</t>
   </si>
   <si>
-    <t>CodePipeline, CLI</t>
-  </si>
-  <si>
     <t>CloudFormation</t>
   </si>
   <si>
@@ -67,9 +62,6 @@
     <t>Kinesis</t>
   </si>
   <si>
-    <t>EMR</t>
-  </si>
-  <si>
     <t>Machine Learning</t>
   </si>
   <si>
@@ -157,6 +149,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Innovation Timeline:</t>
@@ -355,6 +348,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Advantages:</t>
@@ -393,6 +387,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Customize inexpensive machines and clusters:</t>
@@ -442,6 +437,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Steps:</t>
@@ -471,6 +467,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Interacting with Cloud Storage:</t>
@@ -496,6 +493,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Cloud Storage supports Data Handling:</t>
@@ -591,6 +589,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">How do recommendation engines work?
@@ -619,6 +618,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Cluster users and items:</t>
@@ -651,6 +651,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Cloud SQL is a fully managed MySQL:</t>
@@ -683,6 +684,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Google Dataproc:</t>
@@ -712,6 +714,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Rich open-source ecosystem for Big Data:</t>
@@ -849,64 +852,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Google Cloud SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Explore Housing Data in Google Cloud Shell:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-git clone https://github.com/GoogleCloudPlatform/training-data-analyst
-cd training-data-analyst/CPB100/lab3a
-less cloudsql/table_creation.sql
-head cloudsql/*.csv
-2. Stage .sql and .csv files into Cloud Storage
-gsutil cp cloudsql/* gs://&lt;BUCKET-NAME&gt;/sql/
-3. Create Cloud SQL instance
-Choose MySQL Second Generation
-Create and note down a root password --&gt; &lt;ROOT-PW&gt;
-Find your IP address using cmd: bash ./find_my_ip.sh --&gt; &lt;GCP-SHELL-IP-ADDRESS&gt;
-Click Add Network to enter your IP address
-Note: Lab3a includes a script called authorize_cloudshell.sh that you can run.
-Click Create Instance
-Note down IP of Cloud SQL Instance --&gt; &lt;CLOUD-SQL-IP-ADDRESS&gt; 
-4. Create Tables
-Click on the Cloud SQL instance id name, e.g. rentals
-Click import, browse to table_creation.sql and select it to import
-5. Populate Tables
-Import the csv files Accommodation and Rating under GCP Cloud SQL console
-6. Explore Tables
-In Google Cloud Shell
-mysql --host=&lt;CLOUD-SQL-IP-ADDRESS&gt; --user=root --password
-use recommendation_spark;
-show tables;
-select * from Accommodation where type = 'castle' and price &lt; 1500;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Ingest, Transform, Store Data into GCP Bucket</t>
@@ -985,6 +931,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Google Datastore:</t>
@@ -1012,6 +959,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Bigtable:</t>
@@ -1040,6 +988,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Bigtable is meant for high throughput:
@@ -1073,6 +1022,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Run Datalab from Cloud Shell:</t>
@@ -1121,6 +1071,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1147,6 +1098,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>BigQuery offers:</t>
@@ -1173,6 +1125,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Loading data into BigQuery:</t>
@@ -1213,6 +1166,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Create ML Dataset with BigQuery:
@@ -1237,6 +1191,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">TensorFlow:
@@ -1267,6 +1222,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>What is a neural network?</t>
@@ -1293,6 +1249,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>ML options on Google Cloud:</t>
@@ -1354,6 +1311,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Get API Key:</t>
@@ -1382,6 +1340,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Collect Predictors and Target Data:</t>
@@ -1408,6 +1367,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Datalab:</t>
@@ -1434,6 +1394,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Options:</t>
@@ -1459,6 +1420,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Asynchronous processing is a way of absorbing unpredictable usage:</t>
@@ -1486,6 +1448,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Cloud Pub/Sub offers reliable, real-time messaging:</t>
@@ -1509,6 +1472,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Dataflow offers NoOps Data Pipelines:</t>
@@ -1534,6 +1498,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Same code does real-time and batch:</t>
@@ -1588,6 +1553,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Network:</t>
@@ -1613,6 +1579,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Regions &amp; Zones:</t>
@@ -1637,6 +1604,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Pricing:</t>
@@ -1700,6 +1668,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Many steps to confiugre and retweak cluster size:</t>
@@ -1729,6 +1698,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Lots of time spent on admin / operations:
@@ -1759,6 +1729,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Dataproc:
@@ -1806,15 +1777,13 @@
     <t>Three Cluster Configurations Possible</t>
   </si>
   <si>
-    <t>Preemptable nodes are runnable for 24 hrs, ideal for Dataproc</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Will you ever have a PetaByte of data? </t>
@@ -1837,6 +1806,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Dataproc eases Hadoop management:</t>
@@ -2132,9 +2102,6 @@
     <t xml:space="preserve">Stackdriver Monitoring - </t>
   </si>
   <si>
-    <t xml:space="preserve">Deployment Manager - </t>
-  </si>
-  <si>
     <t>https://cloud.google.com/monitoring</t>
   </si>
   <si>
@@ -2179,19 +2146,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Datastore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Highly scalable NoSQL database for non-relational data</t>
-    </r>
+    <t>https://cloud.google.com/data-studio</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>Data Exploration</t>
   </si>
   <si>
     <r>
@@ -2203,19 +2164,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BigTable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - High performance NoSQL database for large analytical and operational workloads
-</t>
-    </r>
+      <t xml:space="preserve">Data Studio (Beta) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Build dashboardsto tell great data stories</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2225,27 +2187,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Datastore </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Highly scalable NoSQL database for non-relational data</t>
-    </r>
-  </si>
-  <si>
-    <t>https://cloud.google.com/data-studio</t>
-  </si>
-  <si>
-    <t>Visualization</t>
-  </si>
-  <si>
-    <t>Data Exploration</t>
+      <t>Video Intelligence API (Beta)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Extract metadata from videos</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2257,17 +2210,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Data Studio (Beta) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Build dashboardsto tell great data stories</t>
+      <t>Speech API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Speech to text conversion powered by ML</t>
     </r>
   </si>
   <si>
@@ -2280,17 +2233,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Video Intelligence API (Beta)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Extract metadata from videos</t>
+      <t xml:space="preserve">Translation API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Translate most language pairs</t>
     </r>
   </si>
   <si>
@@ -2303,18 +2256,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Speech API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Speech to text conversion powered by ML</t>
-    </r>
+      <t xml:space="preserve">Vision API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Derive insight from images powered by ML</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Lake</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Speech</t>
+  </si>
+  <si>
+    <t>Translate</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>AWS ElasticSearch</t>
   </si>
   <si>
     <r>
@@ -2326,18 +2309,132 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Translation API </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Translate most language pairs</t>
-    </r>
+      <t xml:space="preserve">Launcher ElasticSearch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+  </si>
+  <si>
+    <t>Machine Types</t>
+  </si>
+  <si>
+    <t>On Demand</t>
+  </si>
+  <si>
+    <r>
+      <t>Compute Engine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Runs VMs on Google infrastructure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">App Engine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Build scalable web and mobile backends in any language on Google’s infrastructure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Container Engine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Kubernetes clusters for Docker containers managed by Google</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cloud Storage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Unified object storage with performance, reliability, and pricing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nearline / Coldline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Fast, low-cost, highly durable storage for data accessed &lt; 1 per month/year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Persistent Disk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Durable and high performance block storage for VM instances</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZFS / Avere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Integrate on-premise NAS architectures with GCP</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cloud.google.com/products/big-data</t>
   </si>
   <si>
     <r>
@@ -2349,48 +2446,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Vision API </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Derive insight from images powered by ML</t>
-    </r>
-  </si>
-  <si>
-    <t>Data Lake</t>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Speech</t>
-  </si>
-  <si>
-    <t>Translate</t>
-  </si>
-  <si>
-    <t>Vision</t>
-  </si>
-  <si>
-    <t>Deep Learning</t>
-  </si>
-  <si>
-    <t>NLP</t>
-  </si>
-  <si>
-    <t>Use Cases</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>AWS ElasticSearch</t>
+      <t xml:space="preserve">Pub/Sub </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Fully-managed real-time messaging service that allows messaging between applications</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2402,166 +2469,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Launcher ElasticSearch </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-  </si>
-  <si>
-    <t>Machine Types</t>
-  </si>
-  <si>
-    <t>On Demand</t>
-  </si>
-  <si>
-    <r>
-      <t>Compute Engine</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Runs VMs on Google infrastructure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">App Engine </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Build scalable web and mobile backends in any language on Google’s infrastructure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Container Engine </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Kubernetes clusters for Docker containers managed by Google</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cloud Storage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Unified object storage with performance, reliability, and pricing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nearline / Coldline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Fast, low-cost, highly durable storage for data accessed &lt; 1 per month/year</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Persistent Disk </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Durable and high performance block storage for VM instances</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ZFS / Avere</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Integrate on-premise NAS architectures with GCP</t>
-    </r>
-  </si>
-  <si>
-    <t>https://cloud.google.com/products/big-data</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pub/Sub </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Fully-managed real-time messaging service that allows messaging between applications</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Tensorflow</t>
     </r>
     <r>
@@ -2591,24 +2498,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Cloud Interconnect </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud DNS - </t>
-  </si>
-  <si>
     <t>Custom Machine Types</t>
   </si>
   <si>
@@ -2621,6 +2510,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>The Master node manages the cluster, choose between:</t>
@@ -2645,6 +2535,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Don't use HDFS to store input/output data, use Google Cloud Storage:</t>
@@ -2668,6 +2559,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Preemptible workers can be a good deal:</t>
@@ -2721,6 +2613,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Traditional HDFS architecture</t>
@@ -2748,6 +2641,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>GCP gives you serverless platform for all stages of analytisc data lifecycle</t>
@@ -2777,6 +2671,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Cloud Dataproc hardware architecture</t>
@@ -2799,6 +2694,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Lift and shift work to Cloud Dataproc</t>
@@ -2837,6 +2733,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>To install software on Dataproc cluster:</t>
@@ -2861,6 +2758,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Set Cluster properties:
@@ -2902,6 +2800,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Hadoop/Spark jobs can read from BigQuery, but go through a temporary GCS storage:</t>
@@ -2939,6 +2838,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Example Use Cases:</t>
@@ -2992,6 +2892,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>BigQuery Offers:</t>
@@ -3018,6 +2919,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>BigQuery is Great for:</t>
@@ -3045,6 +2947,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Functional View:</t>
@@ -3077,6 +2980,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Use Cases:</t>
@@ -3194,6 +3098,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Retain your agility:</t>
@@ -3231,9 +3136,364 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Datastore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Highly scalable NoSQL database for Terabyte scale non-relational data</t>
+    </r>
+  </si>
+  <si>
+    <t>AZURE</t>
+  </si>
+  <si>
+    <t>Virtual Machines</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Azure Quickstart Templates</t>
+  </si>
+  <si>
+    <t>AWS Quick Start</t>
+  </si>
+  <si>
+    <t>Blob Storage</t>
+  </si>
+  <si>
+    <t>SQL Database</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>QuickSight</t>
+  </si>
+  <si>
+    <t>HDInsight</t>
+  </si>
+  <si>
+    <t>DocumentDB</t>
+  </si>
+  <si>
+    <t>Table Storage</t>
+  </si>
+  <si>
+    <t>PaaS / Webapps</t>
+  </si>
+  <si>
+    <t>Page Blobs
+Premium Storage</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>AWS Marketplace</t>
+  </si>
+  <si>
+    <t>Azure Marketplace</t>
+  </si>
+  <si>
+    <t>Container Service</t>
+  </si>
+  <si>
+    <t>Machine Learning Studio</t>
+  </si>
+  <si>
+    <t>CodePipeline
+CLI</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Azure Functions</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/free/docs/map-aws-google-cloud-platform</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/free/docs/map-azure-google-cloud-platform</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/free/docs/what-makes-google-cloud-platform-different</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/docs/compare/aws</t>
+  </si>
+  <si>
+    <t>More Articles on Cloud Comparisons</t>
+  </si>
+  <si>
+    <t>Glacier / S3-IA</t>
+  </si>
+  <si>
+    <t>Content Delivery</t>
+  </si>
+  <si>
+    <t>CloudFront</t>
+  </si>
+  <si>
+    <t>Content Delivery Network</t>
+  </si>
+  <si>
+    <t>Container Registry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC2 Container Registry </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Google Container Registry - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fast, private Docker image storage on GCP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Datastore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Highly scalable NoSQL database for Terabyte scale non-relational data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BigTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - High performance NoSQL database for Petabyte scale analytical and operational workloads</t>
+    </r>
+  </si>
+  <si>
+    <t>EMR
+AWS Data Pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud CDN - </t>
+  </si>
+  <si>
+    <t>Cloud Launcher -</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud Interconnect </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Connect your infrastructure to Google's network edge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud Functions - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Serverless environment to build and connect cloud services</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cloud DNS - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reliable, resilient, low-latency DNS serving from Google’s worldwide network</t>
+    </r>
+  </si>
+  <si>
+    <t>Security &amp; Identity</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>Organizations</t>
+  </si>
+  <si>
+    <t>KMS</t>
+  </si>
+  <si>
+    <t>Inspector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud IAM - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource Manager - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud KMS - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security Scanner - </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deployment Manager - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create and manage cloud resources with simple templates</t>
+    </r>
+  </si>
+  <si>
+    <t>Cloud Services
+App Service</t>
+  </si>
+  <si>
+    <t>Event Hubs
+Service Bus</t>
+  </si>
+  <si>
+    <t>SQL Data Warehouse
+Data Lake Analytics</t>
+  </si>
+  <si>
+    <t>Application Insights
+Operational Insights</t>
+  </si>
+  <si>
+    <t>Azure DNS</t>
+  </si>
+  <si>
+    <t>ExpressRoute</t>
+  </si>
+  <si>
+    <t>Azure Load Balancer</t>
+  </si>
+  <si>
+    <t>Key Vault</t>
+  </si>
+  <si>
+    <t>Azure Resource Manager</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Google Cloud SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Explore Housing Data in Google Cloud Shell:
+git clone https://github.com/GoogleCloudPlatform/training-data-analyst
+cd training-data-analyst/CPB100/lab3a
+less cloudsql/table_creation.sql
+2. Stage .sql and .csv files into Cloud Storage
+gsutil cp cloudsql/* gs://&lt;BUCKET-NAME&gt;/sql/
+3. Create Cloud SQL instance
+Choose MySQL Second Generation
+Create and note down a root password --&gt; &lt;ROOT-PW&gt;
+Find your IP address using cmd: bash ./find_my_ip.sh --&gt; &lt;GCP-SHELL-IP-ADDRESS&gt;
+Click Add Network to enter your IP address
+Note: Lab3a includes a script called authorize_cloudshell.sh that you can run.
+Click Create Instance
+Note down IP of Cloud SQL Instance --&gt; &lt;CLOUD-SQL-IP-ADDRESS&gt; 
+4. Create Tables
+Click on the Cloud SQL instance id name --&gt; Click import, browse to table_creation.sql and select it to import
+5. Populate Tables
+Import the csv files Accommodation and Rating under GCP Cloud SQL console
+6. Explore Tables
+In Google Cloud Shell
+mysql --host=&lt;CLOUD-SQL-IP-ADDRESS&gt; --user=root --password
+use recommendation_spark;
+show tables;
+select * from Accommodation where type = 'castle' and price &lt; 1500;</t>
     </r>
   </si>
 </sst>
@@ -3242,13 +3502,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3268,12 +3521,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3297,15 +3552,25 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3330,6 +3595,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3342,92 +3625,81 @@
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3436,19 +3708,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3457,12 +3729,49 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3525,6 +3834,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3941,1605 +4255,1089 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="77.6640625" customWidth="1"/>
-    <col min="4" max="4" width="89.5" style="15" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="80.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="89.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="80.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
+      <c r="D59" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D60" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
+      <c r="D61" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B68" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D68" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D70" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" t="s">
+      <c r="D74" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="B80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="28"/>
+      <c r="D90" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" t="s">
+      <c r="B91" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="C24" s="10"/>
-      <c r="D24" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="C25" s="10"/>
-      <c r="D25" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" s="10"/>
-      <c r="D26" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="C27" s="10"/>
-      <c r="D27" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="C28" s="10"/>
-      <c r="D28" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="C91" s="28"/>
+      <c r="D91" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>232</v>
       </c>
-      <c r="B30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C92" s="28"/>
+      <c r="D92" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20">
-      <c r="A35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="D37" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="16" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>66</v>
       </c>
-      <c r="E38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="D39" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="D40" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="D41" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="D43" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="16" t="s">
+      <c r="D93" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="B46" t="s">
-        <v>197</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="B47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="B48" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="B49" t="s">
-        <v>262</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="16" t="s">
+      <c r="D96" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="B51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="B52" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="B53" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="D54" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="D55" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" t="s">
-        <v>212</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>219</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="B60" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="B63" t="s">
-        <v>226</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="B64" t="s">
-        <v>225</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="B65" t="s">
-        <v>227</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="B66" t="s">
-        <v>231</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="B67" t="s">
-        <v>249</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="B68" t="s">
-        <v>248</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="B69" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="16" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D99" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="B70" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s">
-        <v>256</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="D72" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="B73" t="s">
-        <v>261</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="B74" t="s">
-        <v>257</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="B75" t="s">
-        <v>258</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="B76" t="s">
-        <v>259</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="B77" t="s">
-        <v>260</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="B78" t="s">
-        <v>262</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="D79" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>263</v>
-      </c>
-      <c r="B80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>232</v>
-      </c>
-      <c r="B81" t="s">
-        <v>233</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>235</v>
-      </c>
-      <c r="B82" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="B83" t="s">
-        <v>237</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>163</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="D89" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="D90" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="25">
-      <c r="A91" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="17"/>
-    </row>
-    <row r="92" spans="1:4" ht="20">
-      <c r="A92" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="12"/>
-    </row>
-    <row r="93" spans="1:4" ht="135">
-      <c r="A93" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" s="7"/>
-      <c r="D93" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="135" customHeight="1">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="D94" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="58" customHeight="1">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="D95" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="75">
-      <c r="A96" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="D96" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="75">
-      <c r="A97" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="D97" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="225">
-      <c r="A98" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="D98" s="14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B99" s="6"/>
-      <c r="D99" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="20">
-      <c r="A100" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="12"/>
-    </row>
-    <row r="101" spans="1:4" ht="105">
-      <c r="A101" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B101" s="7"/>
-      <c r="D101" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="60">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="D102" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="D103" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="45">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="D104" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="90">
-      <c r="A105" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B105" s="7"/>
-      <c r="D105" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="60">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="D106" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="90">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="D107" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="60">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="D108" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" s="7"/>
-      <c r="D109" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="270">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="D110" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="20">
-      <c r="A111" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="12"/>
-    </row>
-    <row r="112" spans="1:4" ht="60">
-      <c r="A112" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="D112" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="60">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="D113" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="90">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="D114" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B115" s="7"/>
-      <c r="D115" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="120">
-      <c r="A116" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="7"/>
-      <c r="D116" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B117" s="7"/>
-      <c r="D117" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="401" customHeight="1">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="D118" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="75">
-      <c r="A119" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B119" s="7"/>
-      <c r="D119" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="105">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="D120" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B121" s="7"/>
-      <c r="D121" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="409" customHeight="1">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="D122" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="20">
-      <c r="A123" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="12"/>
-    </row>
-    <row r="124" spans="1:4" ht="225">
-      <c r="A124" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B124" s="7"/>
-      <c r="D124" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="75">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="D125" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="90">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="D126" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="150">
-      <c r="A127" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="7"/>
-      <c r="D127" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B128" s="7"/>
-      <c r="D128" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="105">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="D129" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="285">
-      <c r="A130" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" s="7"/>
-      <c r="D130" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B131" s="7"/>
-      <c r="D131" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="D132" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="D133" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="45">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="D134" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="195">
-      <c r="A135" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c r="D135" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="90">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="D136" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B137" s="7"/>
-      <c r="D137" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="D138" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="105">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="D139" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="75">
-      <c r="A140" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" s="7"/>
-      <c r="D140" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="20">
-      <c r="A141" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="12"/>
-    </row>
-    <row r="142" spans="1:4" ht="165">
-      <c r="A142" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" s="7"/>
-      <c r="D142" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="150">
-      <c r="A143" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" s="7"/>
-      <c r="D143" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
-    </row>
-    <row r="145" spans="1:4" ht="25">
-      <c r="A145" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="17"/>
-    </row>
-    <row r="146" spans="1:4" ht="20">
-      <c r="A146" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="23"/>
-    </row>
-    <row r="147" spans="1:4" ht="60">
-      <c r="A147" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B147" s="7"/>
-      <c r="D147" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="30">
-      <c r="A148" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B148" s="7"/>
-      <c r="D148" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="30">
-      <c r="A149" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B149" s="7"/>
-      <c r="D149" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="30">
-      <c r="A150" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="D150" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="120">
-      <c r="A151" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B151" s="7"/>
-      <c r="D151" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="135">
-      <c r="A152" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B152" s="7"/>
-      <c r="D152" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="180">
-      <c r="A153" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B153" s="7"/>
-      <c r="D153" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B154" s="7"/>
-      <c r="D154" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="255">
-      <c r="A155" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B155" s="7"/>
-      <c r="D155" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B156" s="7"/>
-      <c r="D156" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="60">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
-      <c r="D157" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="30">
-      <c r="A158" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B158" s="7"/>
-      <c r="D158" s="14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="20">
-      <c r="A159" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="23"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B160" s="7"/>
-      <c r="D160" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="45">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
-      <c r="D161" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="255">
-      <c r="A162" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B162" s="7"/>
-      <c r="D162" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="135">
-      <c r="A163" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B163" s="7"/>
-      <c r="D163" s="14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B164" s="7"/>
-      <c r="D164" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="60">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
-      <c r="D165" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="20">
-      <c r="A166" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="23"/>
-    </row>
-    <row r="167" spans="1:4" ht="120">
-      <c r="A167" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B167" s="7"/>
-      <c r="D167" s="14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B168" s="7"/>
-      <c r="D168" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="45">
-      <c r="D169" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="165">
-      <c r="A170" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D170" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="20">
-      <c r="A171" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="23"/>
-    </row>
-    <row r="172" spans="1:4" ht="150">
-      <c r="A172" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D172" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D173" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="60">
-      <c r="D174" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="25">
-      <c r="A176" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B176" s="8"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="17"/>
-    </row>
-    <row r="177" spans="1:4" ht="20">
-      <c r="A177" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="23"/>
-    </row>
-    <row r="178" spans="1:4" ht="195">
-      <c r="A178" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D178" s="14" t="s">
-        <v>310</v>
+    <row r="101" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A101" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C62" r:id="rId1"/>
-    <hyperlink ref="C69" r:id="rId2"/>
-    <hyperlink ref="C80" r:id="rId3"/>
-    <hyperlink ref="D61" r:id="rId4"/>
-    <hyperlink ref="D78" r:id="rId5"/>
-    <hyperlink ref="D85" r:id="rId6" location="financial_services"/>
-    <hyperlink ref="D36" r:id="rId7" location="ten-min-tutorial-section" display="https://cloud.google.com/getting-started/?utm_source=free-trial-Y&amp;utm_medium=email&amp;utm_campaign=ft-welcome&amp;utm_content=W1#ten-min-tutorial-section"/>
-    <hyperlink ref="D87" r:id="rId8"/>
-    <hyperlink ref="D86" r:id="rId9"/>
-    <hyperlink ref="D37" r:id="rId10"/>
-    <hyperlink ref="D39" r:id="rId11"/>
-    <hyperlink ref="D42" r:id="rId12"/>
-    <hyperlink ref="D47" r:id="rId13"/>
-    <hyperlink ref="D40" r:id="rId14"/>
-    <hyperlink ref="D48" r:id="rId15"/>
-    <hyperlink ref="D103" r:id="rId16"/>
-    <hyperlink ref="D99" r:id="rId17"/>
-    <hyperlink ref="D54" r:id="rId18"/>
-    <hyperlink ref="D109" r:id="rId19"/>
-    <hyperlink ref="D41" r:id="rId20"/>
-    <hyperlink ref="D44" r:id="rId21"/>
-    <hyperlink ref="D50" r:id="rId22"/>
-    <hyperlink ref="D38" r:id="rId23"/>
-    <hyperlink ref="D84" r:id="rId24"/>
-    <hyperlink ref="D80" r:id="rId25"/>
-    <hyperlink ref="D115" r:id="rId26"/>
-    <hyperlink ref="D117" r:id="rId27"/>
-    <hyperlink ref="D121" r:id="rId28"/>
-    <hyperlink ref="D59" r:id="rId29"/>
-    <hyperlink ref="D63" r:id="rId30"/>
-    <hyperlink ref="D79" r:id="rId31"/>
-    <hyperlink ref="D128" r:id="rId32"/>
-    <hyperlink ref="D131" r:id="rId33"/>
-    <hyperlink ref="D132" r:id="rId34"/>
-    <hyperlink ref="D137" r:id="rId35"/>
-    <hyperlink ref="D138" r:id="rId36"/>
-    <hyperlink ref="D73" r:id="rId37"/>
-    <hyperlink ref="D60" r:id="rId38"/>
-    <hyperlink ref="D71" r:id="rId39"/>
-    <hyperlink ref="D77" r:id="rId40"/>
-    <hyperlink ref="D72" r:id="rId41"/>
-    <hyperlink ref="D76" r:id="rId42"/>
-    <hyperlink ref="D75" r:id="rId43"/>
-    <hyperlink ref="D66" r:id="rId44"/>
-    <hyperlink ref="D64" r:id="rId45"/>
-    <hyperlink ref="C71" r:id="rId46"/>
-    <hyperlink ref="D65" r:id="rId47"/>
-    <hyperlink ref="D49" r:id="rId48"/>
-    <hyperlink ref="D69" r:id="rId49"/>
-    <hyperlink ref="D70" r:id="rId50"/>
-    <hyperlink ref="D88" r:id="rId51"/>
-    <hyperlink ref="D90" r:id="rId52"/>
-    <hyperlink ref="D154" r:id="rId53"/>
-    <hyperlink ref="D156" r:id="rId54"/>
-    <hyperlink ref="D45" r:id="rId55"/>
-    <hyperlink ref="D46" r:id="rId56"/>
-    <hyperlink ref="D51" r:id="rId57"/>
-    <hyperlink ref="D52" r:id="rId58"/>
-    <hyperlink ref="D53" r:id="rId59"/>
-    <hyperlink ref="D56" r:id="rId60"/>
-    <hyperlink ref="D57" r:id="rId61"/>
-    <hyperlink ref="D58" r:id="rId62"/>
-    <hyperlink ref="D81" r:id="rId63"/>
-    <hyperlink ref="D82" r:id="rId64"/>
-    <hyperlink ref="D83" r:id="rId65"/>
-    <hyperlink ref="D68" r:id="rId66"/>
-    <hyperlink ref="D74" r:id="rId67"/>
-    <hyperlink ref="D62" r:id="rId68"/>
-    <hyperlink ref="D160" r:id="rId69"/>
-    <hyperlink ref="D164" r:id="rId70"/>
-    <hyperlink ref="D168" r:id="rId71"/>
-    <hyperlink ref="D173" r:id="rId72"/>
+    <hyperlink ref="D99" r:id="rId1"/>
+    <hyperlink ref="A102" r:id="rId2"/>
+    <hyperlink ref="A103" r:id="rId3"/>
+    <hyperlink ref="A104" r:id="rId4"/>
+    <hyperlink ref="A105" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5550,202 +5348,850 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B88"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="158.375" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="291" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="371.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="1:2" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="306.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B69" s="18"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="252" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" s="18"/>
+    </row>
+    <row r="82" spans="1:2" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A86" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B87" s="18"/>
+    </row>
+    <row r="88" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B83" r:id="rId1"/>
+    <hyperlink ref="B78" r:id="rId2"/>
+    <hyperlink ref="B74" r:id="rId3"/>
+    <hyperlink ref="B70" r:id="rId4"/>
+    <hyperlink ref="B66" r:id="rId5"/>
+    <hyperlink ref="B64" r:id="rId6"/>
+    <hyperlink ref="B48" r:id="rId7"/>
+    <hyperlink ref="B47" r:id="rId8"/>
+    <hyperlink ref="B42" r:id="rId9"/>
+    <hyperlink ref="B41" r:id="rId10"/>
+    <hyperlink ref="B38" r:id="rId11"/>
+    <hyperlink ref="B31" r:id="rId12"/>
+    <hyperlink ref="B27" r:id="rId13"/>
+    <hyperlink ref="B25" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="B13" r:id="rId17"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N90" sqref="N90"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/AWS_GCP.xlsx
+++ b/AWS_GCP.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1395" windowWidth="24855" windowHeight="9945" tabRatio="500"/>
+    <workbookView xWindow="21360" yWindow="0" windowWidth="16640" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Master Summary" sheetId="1" r:id="rId1"/>
     <sheet name="GCP" sheetId="5" r:id="rId2"/>
     <sheet name="POCs + Sample Data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="416">
   <si>
     <t>AWS</t>
   </si>
@@ -2884,61 +2884,6 @@
   </si>
   <si>
     <t>What is BigQuery</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BigQuery Offers:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Interactive analysis of petabyte scale databases
-2. Familiar SQL query language and functions
-3. Many ways to ingest, transform, load, export data to/from BigQuery
-4. Nested and repeated fields, user-defined functions in JavaScript
-5. Data storage is expensive; queries charged on amount of data processed (pay-per-use query)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BigQuery is Great for:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Near-real time analysis of massive datasets
-2. No-ops/Serverless, pay per use
-3. Durable (replicated), inexpensive storage
-4. Immutable audit logs
-5. Mashing up different datasets to derive insight</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3496,12 +3441,340 @@
 select * from Accommodation where type = 'castle' and price &lt; 1500;</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BigQuery Offers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Interactive analysis of petabyte scale databases
+2. Familiar SQL query language and functions
+3. Many ways to ingest, transform, load, export data to/from BigQuery
+4. Nested and repeated fields, user-defined functions in JavaScript
+5. Data storage is expensive; queries charged on amount of data processed (pay-per-use query)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BigQuery is Great for:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Near-real time analysis of massive datasets
+2. No-ops/Serverless, pay per use
+3. Durable (replicated), inexpensive storage
+4. Immutable audit logs
+5. Mashing up different datasets to derive insight
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BIgQuery Storage is Columnar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Each column in separate, compressed, enrcryted file is replicated  3+ times
+2. No indexes, keys, partations required for immutable, massive dataset</t>
+    </r>
+  </si>
+  <si>
+    <t>Queries and Functions</t>
+  </si>
+  <si>
+    <t>Can query from multiple tables using wildcard TABLE_DATE_RANGE( &lt;project&gt;.&lt;table prefix&gt;, TIMESTAMP('2012-05-01'), TIMESTAMP('2012-05-03'))</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb101-bigquery-query</t>
+  </si>
+  <si>
+    <t>-Create and run a query
+-Modify the query to add clauses, subqueries, built-in functions and joins.</t>
+  </si>
+  <si>
+    <t>Load and Export Data</t>
+  </si>
+  <si>
+    <t>Use bq tool and using the web UI to load and export data to/from BigQuery</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb101-advanced-queries</t>
+  </si>
+  <si>
+    <t>-Nested fields
+-Regular expressions
+-With statement
+-Group and Having</t>
+  </si>
+  <si>
+    <t>How Do You Optimize Queries?</t>
+  </si>
+  <si>
+    <t>-Less work -&gt;  Faster query
+-I/O -&gt; How many bytes did you read?
+-Shuffle -&gt; How many bytes did you pass to the next stage (Grouping)
+-Materialization - How many bytes did you write?
+-CPU work - UDFs, functions</t>
+  </si>
+  <si>
+    <t>Don't project unnecessary columns</t>
+  </si>
+  <si>
+    <t>-Don’t do SELECT * unless you need every field, wastes I/O and materialization b/c BigQuery is columnar based</t>
+  </si>
+  <si>
+    <t>Filter early and often using WHERE clauses</t>
+  </si>
+  <si>
+    <t>-How many rows are you operating?
+-Excess rows incur "waste" similar to excess columns</t>
+  </si>
+  <si>
+    <t>Do the biggest joins first</t>
+  </si>
+  <si>
+    <t>-Consider your JOIN order, try to filter the sets pre-JOIN
+-Biggest, Smallest, Decreasing Size thereafter
+-Avoid self-join if you can, since it squares the number of rows processed</t>
+  </si>
+  <si>
+    <t>-Grouping - How much data are we grouping per-key for aggregation?
+-Guideline - Low-cardinality keys/groups -&gt; fast,     high-cardinality -&gt; slower
+-However, higher key cardinality (more groups) leads to more shuffling; key skew can lead to increased tail latency</t>
+  </si>
+  <si>
+    <t>Low Cardinality GROUP BYs are faster</t>
+  </si>
+  <si>
+    <t>Built-in functions are faster than Javascript UDFs</t>
+  </si>
+  <si>
+    <t>Eg. Exact COUNT(DISTINCT) is very costly, but APPROX_COUNT_DISTINCT is very fast</t>
+  </si>
+  <si>
+    <t>ORDER on the outermost query</t>
+  </si>
+  <si>
+    <t>-Sorting - How many values do you need to sort?
+-Fitlering first reduces number of values you need to sort</t>
+  </si>
+  <si>
+    <t>Wildcard tables</t>
+  </si>
+  <si>
+    <t>-Use wildcards to query multiple tables using concise SQL statements
+-Wildcard tables are useful if your dataset contains multiple, similarly named tables with same schemas or sharded tables
+-When you query, each row contains a special column with the wildcard match</t>
+  </si>
+  <si>
+    <t>Table Partitioning</t>
+  </si>
+  <si>
+    <t>-Time-partitioned tables are a cost-effective way to manage data
+-Easier to write queries spanning time periods
+-When you create tables with time-based partitions, BigQuery automatically loads data in correct partition
+-Declare table as partitioned at time of creation using --time_partitioning_type
+-To create partitioned table with expiration time for data, use --time_partitioning_expiration</t>
+  </si>
+  <si>
+    <t>Monitor BigQuery with Stackdriver</t>
+  </si>
+  <si>
+    <t>-Fully interactive GUI available for all BigQuery users</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Free:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Cached queries (Run same query twice)
+-Metadata queries
+-Queries with errors
+-Loading data into BigQuery
+-Exporting data out from BigQuery
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Storage:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Amount of data in table
+-Ingest rate of streaming data
+-Automatic discount for old data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Processing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-On-demand or flat-rate plans
+-On-demand based on amount of data processed
+-1 TB/month free
+-Have to opt-in to run high-compute queries</t>
+    </r>
+  </si>
+  <si>
+    <t>BigQuery Pricing</t>
+  </si>
+  <si>
+    <t>Introduction to Cloud Dataflow</t>
+  </si>
+  <si>
+    <t>What is Dataflow?</t>
+  </si>
+  <si>
+    <t>Open-source API, Apache Beam</t>
+  </si>
+  <si>
+    <t>-Execute data-processing pipelines in Google Cloud, which can be elastically scaled
+-Does both real-time (Cloud Pub/Sub) and batch (Cloud Storage)</t>
+  </si>
+  <si>
+    <t>A Pipeline is a directed graph of steps</t>
+  </si>
+  <si>
+    <t>-Read in data, transform it, write out
+-Can branch, merge, use if-then statements, etc.</t>
+  </si>
+  <si>
+    <t>PCollection is Parallel Collection</t>
+  </si>
+  <si>
+    <t>-Data in a pipeline are represented by PCollection
+-Supports parallel processing
+-Not an in-memory collection; can be unbounded</t>
+  </si>
+  <si>
+    <t>Ingesting data into a pipeline</t>
+  </si>
+  <si>
+    <t>-Read data from file system, Cloud Storage, BigQuery, Pub/Sub</t>
+  </si>
+  <si>
+    <t>Can write data out ot same formats</t>
+  </si>
+  <si>
+    <t>-Write data to file system, Cloud Storage, BigQuery, Pub/Sub
+-Can prevent sharding of output (do so only if file is small)</t>
+  </si>
+  <si>
+    <t>Executing pipeline</t>
+  </si>
+  <si>
+    <t>-Simply running main() runs pipeline locally
+-To run on cloud, submit the job to Dataflow</t>
+  </si>
+  <si>
+    <t>-Write a simple pipeline in Python
+-Execute the query on the local machine
+-Execute the query on the cloud</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/cpb101-simple-dataflow-py</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3623,80 +3896,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3708,19 +3983,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3729,24 +4004,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3755,25 +4030,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -3828,6 +4103,8 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3865,7 +4142,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3908,7 +4191,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3924,6 +4213,141 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168858</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>643350</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="168858" y="17741900"/>
+          <a:ext cx="10532892" cy="5283200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="23126700"/>
+          <a:ext cx="10541000" cy="5054600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622301</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>46721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127001" y="28282900"/>
+          <a:ext cx="10553700" cy="5101321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4257,20 +4681,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="80.625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="26" customWidth="1"/>
     <col min="4" max="4" width="89.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="80.625" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.25">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="25" t="s">
@@ -4280,10 +4704,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21">
       <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
@@ -4294,7 +4718,7 @@
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
@@ -4308,13 +4732,13 @@
         <v>260</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>188</v>
@@ -4323,10 +4747,10 @@
         <v>261</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="30"/>
       <c r="B5" s="30" t="s">
         <v>192</v>
@@ -4338,53 +4762,53 @@
         <v>262</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="31" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="30"/>
       <c r="B7" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="D7" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="30"/>
       <c r="B8" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="D8" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="30" t="s">
         <v>4</v>
       </c>
@@ -4398,10 +4822,10 @@
         <v>263</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.5">
       <c r="A10" s="30"/>
       <c r="B10" s="30" t="s">
         <v>197</v>
@@ -4413,23 +4837,23 @@
         <v>265</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="30"/>
       <c r="B11" s="30" t="s">
         <v>198</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>264</v>
       </c>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
         <v>199</v>
@@ -4442,35 +4866,35 @@
       </c>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="D13" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="D14" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>342</v>
-      </c>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="30" t="s">
         <v>204</v>
       </c>
@@ -4484,10 +4908,10 @@
         <v>270</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="30"/>
       <c r="B16" s="30" t="s">
         <v>206</v>
@@ -4496,13 +4920,13 @@
         <v>209</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="30"/>
       <c r="B17" s="30" t="s">
         <v>207</v>
@@ -4511,13 +4935,13 @@
         <v>210</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="30" t="s">
         <v>8</v>
       </c>
@@ -4531,10 +4955,10 @@
         <v>238</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5">
       <c r="A19" s="30"/>
       <c r="B19" s="30" t="s">
         <v>216</v>
@@ -4543,13 +4967,13 @@
         <v>218</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="30"/>
       <c r="B20" s="30" t="s">
         <v>215</v>
@@ -4558,13 +4982,13 @@
         <v>219</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5">
       <c r="A21" s="30" t="s">
         <v>11</v>
       </c>
@@ -4572,16 +4996,16 @@
         <v>221</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>224</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="30"/>
       <c r="B22" s="30" t="s">
         <v>220</v>
@@ -4594,7 +5018,7 @@
       </c>
       <c r="E22" s="30"/>
     </row>
-    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="31.5">
       <c r="A23" s="30"/>
       <c r="B23" s="30" t="s">
         <v>222</v>
@@ -4606,10 +5030,10 @@
         <v>268</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.5">
       <c r="A24" s="30"/>
       <c r="B24" s="30" t="s">
         <v>226</v>
@@ -4621,10 +5045,10 @@
         <v>185</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="30"/>
       <c r="B25" s="30" t="s">
         <v>241</v>
@@ -4635,22 +5059,22 @@
       </c>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="30"/>
       <c r="B26" s="30" t="s">
         <v>240</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>242</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="30" t="s">
         <v>13</v>
       </c>
@@ -4662,10 +5086,10 @@
         <v>186</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -4674,7 +5098,7 @@
       </c>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="31"/>
@@ -4683,7 +5107,7 @@
       </c>
       <c r="E29" s="30"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
@@ -4692,7 +5116,7 @@
       </c>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="31"/>
@@ -4701,7 +5125,7 @@
       </c>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
@@ -4710,7 +5134,7 @@
       </c>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
@@ -4719,7 +5143,7 @@
       </c>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="30" t="s">
         <v>255</v>
       </c>
@@ -4734,7 +5158,7 @@
       </c>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="30" t="s">
         <v>227</v>
       </c>
@@ -4749,7 +5173,7 @@
       </c>
       <c r="E35" s="30"/>
     </row>
-    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="31.5">
       <c r="A36" s="30" t="s">
         <v>230</v>
       </c>
@@ -4763,10 +5187,10 @@
         <v>234</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="30"/>
       <c r="B37" s="30" t="s">
         <v>232</v>
@@ -4775,72 +5199,72 @@
         <v>10</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="31.5">
       <c r="A38" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="30"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E39" s="30"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E40" s="30"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E42" s="30"/>
     </row>
-    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="21">
       <c r="A44" s="22" t="s">
         <v>15</v>
       </c>
@@ -4849,7 +5273,7 @@
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -4857,12 +5281,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="D46" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -4870,22 +5294,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="D48" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="D49" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="D50" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -4893,12 +5317,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="D52" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -4909,7 +5333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="B54" t="s">
         <v>191</v>
       </c>
@@ -4917,7 +5341,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="B55" t="s">
         <v>192</v>
       </c>
@@ -4925,7 +5349,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="B56" t="s">
         <v>258</v>
       </c>
@@ -4933,7 +5357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="B57" t="s">
         <v>259</v>
       </c>
@@ -4941,7 +5365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="B58" t="s">
         <v>254</v>
       </c>
@@ -4950,7 +5374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -4961,7 +5385,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="B60" t="s">
         <v>197</v>
       </c>
@@ -4969,7 +5393,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="B61" t="s">
         <v>198</v>
       </c>
@@ -4977,7 +5401,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="B62" t="s">
         <v>199</v>
       </c>
@@ -4985,17 +5409,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="D63" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="D64" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -5006,7 +5430,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="B66" t="s">
         <v>206</v>
       </c>
@@ -5014,7 +5438,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="B67" t="s">
         <v>207</v>
       </c>
@@ -5022,7 +5446,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5033,7 +5457,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="B69" t="s">
         <v>216</v>
       </c>
@@ -5041,7 +5465,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="B70" t="s">
         <v>215</v>
       </c>
@@ -5049,7 +5473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -5063,7 +5487,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="B72" t="s">
         <v>221</v>
       </c>
@@ -5071,7 +5495,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="B73" t="s">
         <v>220</v>
       </c>
@@ -5079,7 +5503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="B74" t="s">
         <v>222</v>
       </c>
@@ -5087,7 +5511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="B75" t="s">
         <v>226</v>
       </c>
@@ -5095,7 +5519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="B76" t="s">
         <v>241</v>
       </c>
@@ -5103,7 +5527,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="B77" t="s">
         <v>240</v>
       </c>
@@ -5111,7 +5535,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="B78" t="s">
         <v>247</v>
       </c>
@@ -5122,7 +5546,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="B79" t="s">
         <v>254</v>
       </c>
@@ -5130,7 +5554,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5144,12 +5568,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="D81" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="B82" t="s">
         <v>253</v>
       </c>
@@ -5157,7 +5581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="B83" t="s">
         <v>249</v>
       </c>
@@ -5165,7 +5589,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="B84" t="s">
         <v>250</v>
       </c>
@@ -5173,7 +5597,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="B85" t="s">
         <v>251</v>
       </c>
@@ -5181,7 +5605,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="B86" t="s">
         <v>252</v>
       </c>
@@ -5189,7 +5613,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="B87" t="s">
         <v>254</v>
       </c>
@@ -5197,12 +5621,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="D88" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -5216,7 +5640,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>227</v>
       </c>
@@ -5228,7 +5652,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>230</v>
       </c>
@@ -5240,7 +5664,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="B92" t="s">
         <v>232</v>
       </c>
@@ -5249,7 +5673,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -5257,7 +5681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -5265,7 +5689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -5273,7 +5697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>64</v>
       </c>
@@ -5281,7 +5705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -5289,43 +5713,43 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="D98" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="D99" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="21">
       <c r="A101" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="27"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5337,7 +5761,7 @@
     <hyperlink ref="A105" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5348,31 +5772,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.125" customWidth="1"/>
-    <col min="2" max="2" width="158.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="111.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="26.25">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="12"/>
     </row>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="21">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="144" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -5380,19 +5804,19 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="146.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="63.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="75">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -5400,23 +5824,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="75">
       <c r="A7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="223.5" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -5424,13 +5848,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="21">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="105">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -5438,13 +5862,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="60">
       <c r="A12" s="4"/>
       <c r="B12" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -5452,13 +5876,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="45">
       <c r="A14" s="4"/>
       <c r="B14" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -5466,25 +5890,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="60">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="90">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="60">
       <c r="A18" s="4"/>
       <c r="B18" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -5492,19 +5916,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="291" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="291" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="21">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="60">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -5512,19 +5936,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="60">
       <c r="A23" s="4"/>
       <c r="B23" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="75">
       <c r="A24" s="4"/>
       <c r="B24" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
@@ -5532,7 +5956,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="129.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
@@ -5540,7 +5964,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -5548,13 +5972,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="405" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="75">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -5562,13 +5986,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="75">
       <c r="A30" s="4"/>
       <c r="B30" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>47</v>
       </c>
@@ -5576,19 +6000,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="371.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="371.25" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="21">
       <c r="A33" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:2" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="225">
       <c r="A34" s="4" t="s">
         <v>117</v>
       </c>
@@ -5596,19 +6020,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="75">
       <c r="A35" s="4"/>
       <c r="B35" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="90">
       <c r="A36" s="4"/>
       <c r="B36" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="150">
       <c r="A37" s="4" t="s">
         <v>122</v>
       </c>
@@ -5616,7 +6040,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
@@ -5624,13 +6048,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="105">
       <c r="A39" s="4"/>
       <c r="B39" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="306.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="306.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>125</v>
       </c>
@@ -5638,7 +6062,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -5646,25 +6070,25 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4"/>
       <c r="B42" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="4"/>
       <c r="B43" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="45">
       <c r="A44" s="4"/>
       <c r="B44" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="195">
       <c r="A45" s="4" t="s">
         <v>128</v>
       </c>
@@ -5672,13 +6096,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="90">
       <c r="A46" s="4"/>
       <c r="B46" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
@@ -5686,19 +6110,19 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="4"/>
       <c r="B48" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="105">
       <c r="A49" s="4"/>
       <c r="B49" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="75">
       <c r="A50" s="4" t="s">
         <v>135</v>
       </c>
@@ -5706,13 +6130,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="21">
       <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="150">
       <c r="A52" s="4" t="s">
         <v>137</v>
       </c>
@@ -5720,7 +6144,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="135">
       <c r="A53" s="4" t="s">
         <v>138</v>
       </c>
@@ -5728,22 +6152,22 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="4"/>
     </row>
-    <row r="55" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="26.25">
       <c r="A55" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="21">
       <c r="A56" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B56" s="18"/>
     </row>
-    <row r="57" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="60">
       <c r="A57" s="4" t="s">
         <v>166</v>
       </c>
@@ -5751,7 +6175,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="30">
       <c r="A58" s="4" t="s">
         <v>168</v>
       </c>
@@ -5759,7 +6183,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="30">
       <c r="A59" s="4" t="s">
         <v>170</v>
       </c>
@@ -5767,7 +6191,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>172</v>
       </c>
@@ -5775,7 +6199,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="120">
       <c r="A61" s="4" t="s">
         <v>175</v>
       </c>
@@ -5783,7 +6207,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="135">
       <c r="A62" s="4" t="s">
         <v>176</v>
       </c>
@@ -5791,7 +6215,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="150">
       <c r="A63" s="4" t="s">
         <v>174</v>
       </c>
@@ -5799,7 +6223,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>180</v>
       </c>
@@ -5807,7 +6231,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="255">
       <c r="A65" s="4" t="s">
         <v>182</v>
       </c>
@@ -5815,7 +6239,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>47</v>
       </c>
@@ -5823,13 +6247,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="60">
       <c r="A67" s="4"/>
       <c r="B67" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="30">
       <c r="A68" s="4" t="s">
         <v>271</v>
       </c>
@@ -5837,13 +6261,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="21">
       <c r="A69" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B69" s="18"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>47</v>
       </c>
@@ -5851,13 +6275,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="45">
       <c r="A71" s="4"/>
       <c r="B71" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="252" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="240">
       <c r="A72" s="4" t="s">
         <v>275</v>
       </c>
@@ -5865,7 +6289,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="135">
       <c r="A73" s="4" t="s">
         <v>276</v>
       </c>
@@ -5873,7 +6297,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>47</v>
       </c>
@@ -5881,19 +6305,19 @@
         <v>283</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="60">
       <c r="A75" s="4"/>
       <c r="B75" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="21">
       <c r="A76" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B76" s="18"/>
     </row>
-    <row r="77" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="120">
       <c r="A77" s="4" t="s">
         <v>284</v>
       </c>
@@ -5901,7 +6325,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>47</v>
       </c>
@@ -5909,12 +6333,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="45">
       <c r="B79" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="165">
       <c r="A80" s="4" t="s">
         <v>288</v>
       </c>
@@ -5922,13 +6346,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="21">
       <c r="A81" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B81" s="18"/>
     </row>
-    <row r="82" spans="1:2" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="147" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>290</v>
       </c>
@@ -5936,7 +6360,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>47</v>
       </c>
@@ -5944,29 +6368,231 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="66" customHeight="1">
       <c r="B84" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" ht="26.25">
       <c r="A86" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B86" s="12"/>
     </row>
-    <row r="87" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="21">
       <c r="A87" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B87" s="18"/>
     </row>
-    <row r="88" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="257" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>300</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30">
+      <c r="A89" t="s">
+        <v>370</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30">
+      <c r="B91" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>374</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="60">
+      <c r="B94" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="75">
+      <c r="A95" t="s">
+        <v>378</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>380</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="45">
+      <c r="A98" t="s">
+        <v>384</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45">
+      <c r="A99" t="s">
+        <v>387</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" t="s">
+        <v>390</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="45">
+      <c r="A102" t="s">
+        <v>392</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="75">
+      <c r="A103" t="s">
+        <v>394</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>396</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="255">
+      <c r="A105" t="s">
+        <v>399</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="20">
+      <c r="A106" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B106" s="18"/>
+    </row>
+    <row r="107" spans="1:2" ht="30">
+      <c r="A107" t="s">
+        <v>401</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="30">
+      <c r="A109" t="s">
+        <v>404</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="45">
+      <c r="A110" t="s">
+        <v>406</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>408</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="30">
+      <c r="A112" t="s">
+        <v>410</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30">
+      <c r="A113" t="s">
+        <v>412</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="45">
+      <c r="B115" s="9" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -5988,9 +6614,17 @@
     <hyperlink ref="B19" r:id="rId15"/>
     <hyperlink ref="B9" r:id="rId16"/>
     <hyperlink ref="B13" r:id="rId17"/>
+    <hyperlink ref="B90" r:id="rId18"/>
+    <hyperlink ref="B93" r:id="rId19"/>
+    <hyperlink ref="B114" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5998,198 +6632,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="M176" sqref="M175:M176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="6" t="s">
         <v>112</v>
       </c>
